--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22704"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1DC4BD1-EA04-4F92-A0CE-FB66369DB47B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5823A1B9-CE3F-4A2F-BBED-5B235AACA030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,21 +458,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="9" width="10.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,32 +484,38 @@
         <v>43897</v>
       </c>
       <c r="D1" s="2">
+        <v>43898</v>
+      </c>
+      <c r="E1" s="2">
         <v>43899</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43900</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43901</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43902</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43903</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43904</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="K1" s="2">
+        <v>43905</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -519,25 +526,29 @@
         <v>11</v>
       </c>
       <c r="D2" s="5">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5">
         <v>30</v>
-      </c>
-      <c r="E2" s="5">
-        <v>37</v>
       </c>
       <c r="F2" s="5">
         <v>37</v>
       </c>
       <c r="G2" s="5">
+        <v>37</v>
+      </c>
+      <c r="H2" s="5">
         <v>78</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>83</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>106</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4">
+        <v>128</v>
+      </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -560,8 +571,9 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AH2" s="4"/>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -572,25 +584,29 @@
         <v>3</v>
       </c>
       <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
         <v>5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>7</v>
-      </c>
-      <c r="F3" s="5">
-        <v>8</v>
       </c>
       <c r="G3" s="5">
         <v>8</v>
       </c>
       <c r="H3" s="5">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5">
         <v>10</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>10</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4">
+        <v>11</v>
+      </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -613,8 +629,9 @@
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -628,22 +645,26 @@
         <v>9</v>
       </c>
       <c r="E4" s="5">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5">
         <v>11</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>17</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>32</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>37</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>59</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4">
+        <v>66</v>
+      </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -666,8 +687,9 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -678,25 +700,29 @@
         <v>61</v>
       </c>
       <c r="D5" s="5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="5">
         <v>119</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>126</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>149</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>174</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>213</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>243</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4">
+        <v>296</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -719,8 +745,9 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -731,25 +758,29 @@
         <v>937</v>
       </c>
       <c r="D6" s="5">
+        <v>1097</v>
+      </c>
+      <c r="E6" s="5">
         <v>1286</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>1417</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>1588</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>1758</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>2011</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>2349</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4">
+        <v>2741</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -772,8 +803,9 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -784,27 +816,31 @@
         <v>39</v>
       </c>
       <c r="D7" s="5">
+        <v>53</v>
+      </c>
+      <c r="E7" s="5">
         <v>89</v>
-      </c>
-      <c r="E7" s="5">
-        <v>110</v>
       </c>
       <c r="F7" s="5">
         <v>110</v>
       </c>
       <c r="G7" s="5">
+        <v>110</v>
+      </c>
+      <c r="H7" s="5">
         <v>148</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>236</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>271</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4">
+        <v>316</v>
+      </c>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -825,8 +861,9 @@
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -837,25 +874,29 @@
         <v>72</v>
       </c>
       <c r="D8" s="5">
+        <v>81</v>
+      </c>
+      <c r="E8" s="5">
         <v>94</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>99</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>125</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>172</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>242</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>320</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4">
+        <v>396</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -878,8 +919,9 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -890,25 +932,29 @@
         <v>42</v>
       </c>
       <c r="D9" s="5">
+        <v>67</v>
+      </c>
+      <c r="E9" s="5">
         <v>97</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>128</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>181</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>243</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>304</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>384</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4">
+        <v>493</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -931,8 +977,9 @@
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -943,25 +990,29 @@
         <v>2742</v>
       </c>
       <c r="D10" s="5">
+        <v>3372</v>
+      </c>
+      <c r="E10" s="5">
         <v>4490</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>4427</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>5763</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>6896</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>7732</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>9059</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4">
+        <v>10043</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -984,8 +1035,9 @@
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -996,25 +1048,29 @@
         <v>201</v>
       </c>
       <c r="D11" s="5">
+        <v>265</v>
+      </c>
+      <c r="E11" s="5">
         <v>313</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>381</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>461</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>570</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>698</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>863</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="4">
+        <v>1087</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -1037,8 +1093,9 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1052,22 +1109,26 @@
         <v>14</v>
       </c>
       <c r="E12" s="5">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5">
         <v>15</v>
-      </c>
-      <c r="F12" s="5">
-        <v>16</v>
       </c>
       <c r="G12" s="5">
         <v>16</v>
       </c>
       <c r="H12" s="5">
+        <v>16</v>
+      </c>
+      <c r="I12" s="5">
         <v>17</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>17</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4">
+        <v>17</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1090,8 +1151,9 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1102,25 +1164,29 @@
         <v>202</v>
       </c>
       <c r="D13" s="5">
+        <v>355</v>
+      </c>
+      <c r="E13" s="5">
         <v>337</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>436</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>480</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>554</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>794</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>814</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4">
+        <v>1030</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1143,8 +1209,9 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1155,25 +1222,29 @@
         <v>23</v>
       </c>
       <c r="D14" s="5">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5">
         <v>46</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>55</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>71</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>98</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>121</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>156</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4">
+        <v>212</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1196,8 +1267,9 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1208,25 +1280,29 @@
         <v>5</v>
       </c>
       <c r="D15" s="5">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5">
         <v>19</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>20</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>37</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>39</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <v>43</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>47</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4">
+        <v>75</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1249,8 +1325,9 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1261,25 +1338,29 @@
         <v>33</v>
       </c>
       <c r="D16" s="5">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5">
         <v>52</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>60</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>81</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <v>111</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
         <v>126</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>150</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4">
+        <v>179</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -1302,8 +1383,9 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1314,25 +1396,29 @@
         <v>112</v>
       </c>
       <c r="D17" s="5">
+        <v>165</v>
+      </c>
+      <c r="E17" s="5">
         <v>206</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>260</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>314</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>352</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5">
         <v>455</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>614</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="4">
+        <v>763</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1355,8 +1441,9 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1367,25 +1454,29 @@
         <v>23</v>
       </c>
       <c r="D18" s="5">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5">
         <v>42</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>88</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>149</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>205</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>280</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>369</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4">
+        <v>566</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1408,8 +1499,9 @@
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1420,25 +1512,29 @@
         <v>24</v>
       </c>
       <c r="D19" s="5">
+        <v>26</v>
+      </c>
+      <c r="E19" s="5">
         <v>28</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <v>37</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>44</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <v>62</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5">
         <v>73</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>103</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4">
+        <v>139</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -1461,8 +1557,9 @@
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
-    </row>
-    <row r="20" spans="1:33">
+      <c r="AH19" s="4"/>
+    </row>
+    <row r="20" spans="1:34">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1473,25 +1570,29 @@
         <v>8</v>
       </c>
       <c r="D20" s="5">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5">
         <v>15</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>17</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>19</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <v>26</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5">
         <v>27</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>41</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="4">
+        <v>56</v>
+      </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -1514,8 +1615,9 @@
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
-    </row>
-    <row r="21" spans="1:33">
+      <c r="AH20" s="4"/>
+    </row>
+    <row r="21" spans="1:34">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1526,25 +1628,29 @@
         <v>505</v>
       </c>
       <c r="D21" s="5">
+        <v>623</v>
+      </c>
+      <c r="E21" s="5">
         <v>694</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
         <v>783</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>940</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <v>1297</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5">
         <v>1453</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>1775</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="4">
+        <v>1989</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -1567,13 +1673,14 @@
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
-    </row>
-    <row r="22" spans="1:33">
+      <c r="AH21" s="4"/>
+    </row>
+    <row r="22" spans="1:34">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" ref="B22:F22" si="0">SUM(B2:B21)</f>
+        <f t="shared" ref="B22:G22" si="0">SUM(B2:B21)</f>
         <v>3916</v>
       </c>
       <c r="C22" s="3">
@@ -1582,33 +1689,35 @@
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>7985</v>
+        <v>6387</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="0"/>
-        <v>8514</v>
+        <v>7985</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
+        <v>8514</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
         <v>10590</v>
-      </c>
-      <c r="G22" s="3">
-        <f>SUM(G2:G21)</f>
-        <v>12839</v>
       </c>
       <c r="H22" s="3">
         <f>SUM(H2:H21)</f>
-        <v>14955</v>
+        <v>12839</v>
       </c>
       <c r="I22" s="3">
         <f>SUM(I2:I21)</f>
+        <v>14955</v>
+      </c>
+      <c r="J22" s="3">
+        <f>SUM(J2:J21)</f>
         <v>17750</v>
       </c>
-    </row>
-    <row r="24" spans="1:33">
-      <c r="A24">
-        <f>8372+1518+7860</f>
-        <v>17750</v>
+      <c r="K22" s="4">
+        <f>SUM(K2:K21)</f>
+        <v>20603</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22715"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5823A1B9-CE3F-4A2F-BBED-5B235AACA030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B67A50-E9EF-4950-8DA8-D276077AF77E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -469,8 +469,8 @@
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="9" width="10.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -507,10 +507,18 @@
       <c r="K1" s="2">
         <v>43905</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="L1" s="2">
+        <v>43906</v>
+      </c>
+      <c r="M1" s="2">
+        <v>43907</v>
+      </c>
+      <c r="N1" s="2">
+        <v>43908</v>
+      </c>
+      <c r="O1" s="2">
+        <v>43909</v>
+      </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -549,10 +557,18 @@
       <c r="K2" s="4">
         <v>128</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="L2" s="4">
+        <v>165</v>
+      </c>
+      <c r="M2" s="4">
+        <v>216</v>
+      </c>
+      <c r="N2" s="4">
+        <v>249</v>
+      </c>
+      <c r="O2" s="4">
+        <v>366</v>
+      </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -607,10 +623,18 @@
       <c r="K3" s="4">
         <v>11</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="L3" s="4">
+        <v>12</v>
+      </c>
+      <c r="M3" s="4">
+        <v>20</v>
+      </c>
+      <c r="N3" s="4">
+        <v>27</v>
+      </c>
+      <c r="O3" s="4">
+        <v>37</v>
+      </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -665,10 +689,18 @@
       <c r="K4" s="4">
         <v>66</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="L4" s="4">
+        <v>87</v>
+      </c>
+      <c r="M4" s="4">
+        <v>112</v>
+      </c>
+      <c r="N4" s="4">
+        <v>126</v>
+      </c>
+      <c r="O4" s="4">
+        <v>164</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -723,10 +755,18 @@
       <c r="K5" s="4">
         <v>296</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="L5" s="4">
+        <v>363</v>
+      </c>
+      <c r="M5" s="4">
+        <v>423</v>
+      </c>
+      <c r="N5" s="4">
+        <v>423</v>
+      </c>
+      <c r="O5" s="4">
+        <v>605</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -781,10 +821,18 @@
       <c r="K6" s="4">
         <v>2741</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="L6" s="4">
+        <v>3088</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3404</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3915</v>
+      </c>
+      <c r="O6" s="4">
+        <v>4506</v>
+      </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -839,10 +887,18 @@
       <c r="K7" s="4">
         <v>316</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="L7" s="4">
+        <v>346</v>
+      </c>
+      <c r="M7" s="3">
+        <v>347</v>
+      </c>
+      <c r="N7" s="4">
+        <v>416</v>
+      </c>
+      <c r="O7" s="4">
+        <v>522</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -897,10 +953,18 @@
       <c r="K8" s="4">
         <v>396</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="L8" s="4">
+        <v>472</v>
+      </c>
+      <c r="M8" s="4">
+        <v>550</v>
+      </c>
+      <c r="N8" s="4">
+        <v>650</v>
+      </c>
+      <c r="O8" s="4">
+        <v>741</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -955,10 +1019,18 @@
       <c r="K9" s="4">
         <v>493</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="L9" s="4">
+        <v>575</v>
+      </c>
+      <c r="M9" s="4">
+        <v>661</v>
+      </c>
+      <c r="N9" s="4">
+        <v>744</v>
+      </c>
+      <c r="O9" s="4">
+        <v>883</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1013,10 +1085,18 @@
       <c r="K10" s="4">
         <v>10043</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="L10" s="4">
+        <v>10861</v>
+      </c>
+      <c r="M10" s="4">
+        <v>12095</v>
+      </c>
+      <c r="N10" s="4">
+        <v>12266</v>
+      </c>
+      <c r="O10" s="4">
+        <v>13938</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1071,10 +1151,18 @@
       <c r="K11" s="4">
         <v>1087</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="L11" s="4">
+        <v>1185</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1302</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1476</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1622</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -1129,10 +1217,18 @@
       <c r="K12" s="4">
         <v>17</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="L12" s="4">
+        <v>15</v>
+      </c>
+      <c r="M12" s="4">
+        <v>19</v>
+      </c>
+      <c r="N12" s="4">
+        <v>21</v>
+      </c>
+      <c r="O12" s="4">
+        <v>38</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1187,10 +1283,18 @@
       <c r="K13" s="4">
         <v>1030</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="L13" s="4">
+        <v>1405</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1764</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2187</v>
+      </c>
+      <c r="O13" s="4">
+        <v>2754</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -1245,10 +1349,18 @@
       <c r="K14" s="4">
         <v>212</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="L14" s="4">
+        <v>212</v>
+      </c>
+      <c r="M14" s="4">
+        <v>320</v>
+      </c>
+      <c r="N14" s="4">
+        <v>362</v>
+      </c>
+      <c r="O14" s="4">
+        <v>449</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -1303,10 +1415,18 @@
       <c r="K15" s="4">
         <v>75</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="L15" s="4">
+        <v>105</v>
+      </c>
+      <c r="M15" s="4">
+        <v>115</v>
+      </c>
+      <c r="N15" s="4">
+        <v>132</v>
+      </c>
+      <c r="O15" s="4">
+        <v>204</v>
+      </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -1361,10 +1481,18 @@
       <c r="K16" s="4">
         <v>179</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="L16" s="4">
+        <v>203</v>
+      </c>
+      <c r="M16" s="4">
+        <v>226</v>
+      </c>
+      <c r="N16" s="4">
+        <v>267</v>
+      </c>
+      <c r="O16" s="4">
+        <v>321</v>
+      </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1419,10 +1547,18 @@
       <c r="K17" s="4">
         <v>763</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="L17" s="4">
+        <v>841</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1024</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1291</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1422</v>
+      </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -1477,10 +1613,18 @@
       <c r="K18" s="4">
         <v>566</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="L18" s="4">
+        <v>602</v>
+      </c>
+      <c r="M18" s="4">
+        <v>650</v>
+      </c>
+      <c r="N18" s="4">
+        <v>802</v>
+      </c>
+      <c r="O18" s="4">
+        <v>912</v>
+      </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -1535,10 +1679,18 @@
       <c r="K19" s="4">
         <v>139</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="L19" s="4">
+        <v>159</v>
+      </c>
+      <c r="M19" s="4">
+        <v>192</v>
+      </c>
+      <c r="N19" s="4">
+        <v>241</v>
+      </c>
+      <c r="O19" s="4">
+        <v>328</v>
+      </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1593,10 +1745,18 @@
       <c r="K20" s="4">
         <v>56</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="L20" s="4">
+        <v>103</v>
+      </c>
+      <c r="M20" s="4">
+        <v>134</v>
+      </c>
+      <c r="N20" s="4">
+        <v>162</v>
+      </c>
+      <c r="O20" s="4">
+        <v>209</v>
+      </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -1645,16 +1805,24 @@
       <c r="I21" s="5">
         <v>1453</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="5">
         <v>1775</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="5">
         <v>1989</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="L21" s="5">
+        <v>2274</v>
+      </c>
+      <c r="M21" s="4">
+        <v>2488</v>
+      </c>
+      <c r="N21" s="4">
+        <v>2953</v>
+      </c>
+      <c r="O21" s="4">
+        <v>3169</v>
+      </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -1679,45 +1847,61 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="5">
         <f t="shared" ref="B22:G22" si="0">SUM(B2:B21)</f>
         <v>3916</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>5061</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <f t="shared" si="0"/>
         <v>6387</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>7985</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>8514</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="5">
         <f t="shared" si="0"/>
         <v>10590</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="5">
         <f>SUM(H2:H21)</f>
         <v>12839</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="5">
         <f>SUM(I2:I21)</f>
         <v>14955</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="5">
         <f>SUM(J2:J21)</f>
         <v>17750</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="5">
         <f>SUM(K2:K21)</f>
         <v>20603</v>
+      </c>
+      <c r="L22" s="5">
+        <f>SUM(L2:L21)</f>
+        <v>23073</v>
+      </c>
+      <c r="M22" s="5">
+        <f>SUM(M2:M21)</f>
+        <v>26062</v>
+      </c>
+      <c r="N22" s="5">
+        <f>SUM(N2:N21)</f>
+        <v>28710</v>
+      </c>
+      <c r="O22" s="5">
+        <f>SUM(O2:O21)</f>
+        <v>33190</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22715"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B67A50-E9EF-4950-8DA8-D276077AF77E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF4135A5-36D8-4498-AF1A-B6B17FBAB6BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1048576"/>
+      <selection activeCell="R7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -469,8 +469,8 @@
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="9" width="10.5703125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -519,8 +519,12 @@
       <c r="O1" s="2">
         <v>43909</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="P1" s="2">
+        <v>43910</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>43911</v>
+      </c>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:34">
@@ -569,8 +573,12 @@
       <c r="O2" s="4">
         <v>366</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="P2" s="4">
+        <v>422</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>494</v>
+      </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -635,8 +643,12 @@
       <c r="O3" s="4">
         <v>37</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="P3" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>52</v>
+      </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -701,8 +713,12 @@
       <c r="O4" s="4">
         <v>164</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="P4" s="4">
+        <v>201</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>225</v>
+      </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -767,8 +783,12 @@
       <c r="O5" s="4">
         <v>605</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="P5" s="4">
+        <v>702</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>793</v>
+      </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -833,8 +853,12 @@
       <c r="O6" s="4">
         <v>4506</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="P6" s="4">
+        <v>5089</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>5661</v>
+      </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -899,9 +923,13 @@
       <c r="O7" s="4">
         <v>522</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="P7" s="4">
+        <v>555</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>666</v>
+      </c>
+      <c r="R7" s="3"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -965,8 +993,12 @@
       <c r="O8" s="4">
         <v>741</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="P8" s="4">
+        <v>912</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1086</v>
+      </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -1031,8 +1063,12 @@
       <c r="O9" s="4">
         <v>883</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="P9" s="4">
+        <v>1001</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1159</v>
+      </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -1097,8 +1133,12 @@
       <c r="O10" s="4">
         <v>13938</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="P10" s="4">
+        <v>15420</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>17370</v>
+      </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -1163,8 +1203,12 @@
       <c r="O11" s="4">
         <v>1622</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="P11" s="4">
+        <v>1844</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1997</v>
+      </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1229,8 +1273,12 @@
       <c r="O12" s="4">
         <v>38</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="P12" s="4">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>47</v>
+      </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -1295,8 +1343,12 @@
       <c r="O13" s="4">
         <v>2754</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="P13" s="4">
+        <v>3244</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>3506</v>
+      </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -1361,8 +1413,12 @@
       <c r="O14" s="4">
         <v>449</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="P14" s="4">
+        <v>551</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>642</v>
+      </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -1427,8 +1483,12 @@
       <c r="O15" s="4">
         <v>204</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="P15" s="4">
+        <v>288</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>321</v>
+      </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -1493,8 +1553,12 @@
       <c r="O16" s="4">
         <v>321</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="P16" s="4">
+        <v>379</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>458</v>
+      </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -1559,8 +1623,12 @@
       <c r="O17" s="4">
         <v>1422</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="P17" s="4">
+        <v>1713</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>1905</v>
+      </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -1625,8 +1693,12 @@
       <c r="O18" s="4">
         <v>912</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="P18" s="4">
+        <v>1130</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1320</v>
+      </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -1691,8 +1763,12 @@
       <c r="O19" s="4">
         <v>328</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="P19" s="4">
+        <v>384</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>447</v>
+      </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -1757,8 +1833,12 @@
       <c r="O20" s="4">
         <v>209</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="P20" s="4">
+        <v>257</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>304</v>
+      </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
@@ -1823,8 +1903,12 @@
       <c r="O21" s="4">
         <v>3169</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="P21" s="4">
+        <v>3677</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>4214</v>
+      </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -1903,6 +1987,14 @@
         <f>SUM(O2:O21)</f>
         <v>33190</v>
       </c>
+      <c r="P22" s="5">
+        <f>SUM(P2:P21)</f>
+        <v>37860</v>
+      </c>
+      <c r="Q22" s="5">
+        <f>SUM(Q2:Q21)</f>
+        <v>42667</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22724"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF4135A5-36D8-4498-AF1A-B6B17FBAB6BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DC161C7-8AD3-4C95-BCDD-5B3446CC332C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -140,10 +140,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -470,1530 +470,1719 @@
     <col min="2" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="9" width="10.5703125" style="1" customWidth="1"/>
     <col min="10" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="5">
         <v>43896</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="5">
         <v>43897</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="5">
         <v>43898</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="5">
         <v>43899</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="5">
         <v>43900</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="5">
         <v>43901</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="5">
         <v>43902</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="5">
         <v>43903</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="5">
         <v>43904</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="5">
         <v>43905</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="5">
         <v>43906</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="5">
         <v>43907</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="5">
         <v>43908</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="5">
         <v>43909</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="5">
         <v>43910</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="5">
         <v>43911</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="5">
+        <v>43912</v>
+      </c>
+      <c r="S1" s="5">
+        <v>43913</v>
+      </c>
+      <c r="T1" s="5">
+        <v>43914</v>
+      </c>
+      <c r="U1" s="5">
+        <v>43915</v>
+      </c>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>11</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>17</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>30</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>37</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>37</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>78</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>83</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>106</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>128</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>165</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>216</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>249</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <v>366</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="3">
         <v>422</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>494</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
+      <c r="R2" s="3">
+        <v>539</v>
+      </c>
+      <c r="S2" s="3">
+        <v>605</v>
+      </c>
+      <c r="T2" s="3">
+        <v>622</v>
+      </c>
+      <c r="U2" s="3">
+        <v>738</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>5</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>7</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>8</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>8</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>10</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>10</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>11</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>12</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>20</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>27</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>37</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>52</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>52</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
+      <c r="R3" s="3">
+        <v>81</v>
+      </c>
+      <c r="S3" s="3">
+        <v>89</v>
+      </c>
+      <c r="T3" s="3">
+        <v>91</v>
+      </c>
+      <c r="U3" s="3">
+        <v>112</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>4</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>9</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>9</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>11</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>17</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>32</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>37</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>59</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>66</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>87</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>112</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>126</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>164</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>201</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>225</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
+      <c r="R4" s="3">
+        <v>260</v>
+      </c>
+      <c r="S4" s="3">
+        <v>280</v>
+      </c>
+      <c r="T4" s="3">
+        <v>304</v>
+      </c>
+      <c r="U4" s="3">
+        <v>333</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>57</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>61</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>100</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>119</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>126</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>149</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>174</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>213</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>243</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>296</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>363</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>423</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>423</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>605</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>702</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>793</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
+      <c r="R5" s="3">
+        <v>866</v>
+      </c>
+      <c r="S5" s="3">
+        <v>929</v>
+      </c>
+      <c r="T5" s="3">
+        <v>992</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1072</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>816</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>937</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>1097</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>1286</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>1417</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>1588</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>1758</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>2011</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>2349</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>2741</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>3088</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>3404</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>3915</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>4506</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>5089</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>5661</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
+      <c r="R6" s="3">
+        <v>6390</v>
+      </c>
+      <c r="S6" s="3">
+        <v>7220</v>
+      </c>
+      <c r="T6" s="3">
+        <v>7711</v>
+      </c>
+      <c r="U6" s="3">
+        <v>8256</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>28</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>39</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>53</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>89</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>110</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>110</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>148</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>236</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>271</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>316</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>346</v>
       </c>
       <c r="M7" s="3">
         <v>347</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>416</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>522</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>555</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>666</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
+      <c r="R7" s="3">
+        <v>738</v>
+      </c>
+      <c r="S7" s="3">
+        <v>771</v>
+      </c>
+      <c r="T7" s="3">
+        <v>848</v>
+      </c>
+      <c r="U7" s="3">
+        <v>911</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>50</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>72</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>81</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>94</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>99</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>125</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>172</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>242</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>320</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>396</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>472</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>550</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>650</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>741</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>912</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>1086</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
+      <c r="R8" s="3">
+        <v>1272</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1414</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1545</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1675</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>24</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>42</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>67</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>97</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>128</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>181</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>243</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>304</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>384</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>493</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>575</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>661</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>744</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>883</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>1001</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>1159</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
+      <c r="R9" s="3">
+        <v>1351</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1553</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1692</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1826</v>
+      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
     </row>
     <row r="10" spans="1:34">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>2008</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>2742</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>3372</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>4490</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>4427</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>5763</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>6896</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>7732</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>9059</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>10043</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>10861</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>12095</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>12266</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>13938</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>15420</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>17370</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
+      <c r="R10" s="3">
+        <v>17885</v>
+      </c>
+      <c r="S10" s="3">
+        <v>18910</v>
+      </c>
+      <c r="T10" s="3">
+        <v>19868</v>
+      </c>
+      <c r="U10" s="3">
+        <v>20591</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>155</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>201</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>265</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>313</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>381</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>461</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>570</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>698</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>863</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>1087</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>1185</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>1302</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>1476</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>1622</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>1844</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>1997</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
+      <c r="R11" s="3">
+        <v>2231</v>
+      </c>
+      <c r="S11" s="3">
+        <v>2358</v>
+      </c>
+      <c r="T11" s="3">
+        <v>2497</v>
+      </c>
+      <c r="U11" s="3">
+        <v>2639</v>
+      </c>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>12</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>14</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>14</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>14</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>15</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>16</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>16</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>17</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>17</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>17</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>15</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>19</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>21</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>38</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>39</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>47</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
+      <c r="R12" s="3">
+        <v>52</v>
+      </c>
+      <c r="S12" s="3">
+        <v>50</v>
+      </c>
+      <c r="T12" s="3">
+        <v>55</v>
+      </c>
+      <c r="U12" s="3">
+        <v>53</v>
+      </c>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>139</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>202</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>355</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>337</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>436</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>480</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>554</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>794</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>814</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>1030</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>1405</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>1764</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>2187</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>2754</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>3244</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>3506</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
+      <c r="R13" s="3">
+        <v>4127</v>
+      </c>
+      <c r="S13" s="3">
+        <v>4529</v>
+      </c>
+      <c r="T13" s="3">
+        <v>5124</v>
+      </c>
+      <c r="U13" s="3">
+        <v>5556</v>
+      </c>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>15</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>23</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>36</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>46</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>55</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>71</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>98</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>121</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>156</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>212</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>212</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>320</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>362</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>449</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>551</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>642</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
+      <c r="R14" s="3">
+        <v>748</v>
+      </c>
+      <c r="S14" s="3">
+        <v>862</v>
+      </c>
+      <c r="T14" s="3">
+        <v>940</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1023</v>
+      </c>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>5</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>5</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>11</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>19</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>20</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>37</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>39</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="3">
         <v>43</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>47</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>75</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>105</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>115</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>132</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>204</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>288</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>321</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
+      <c r="R15" s="3">
+        <v>327</v>
+      </c>
+      <c r="S15" s="3">
+        <v>343</v>
+      </c>
+      <c r="T15" s="3">
+        <v>395</v>
+      </c>
+      <c r="U15" s="3">
+        <v>412</v>
+      </c>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>22</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>33</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>51</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>52</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>60</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>81</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <v>111</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="3">
         <v>126</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>150</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>179</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>203</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>226</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>267</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>321</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>379</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>458</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
+      <c r="R16" s="3">
+        <v>596</v>
+      </c>
+      <c r="S16" s="3">
+        <v>681</v>
+      </c>
+      <c r="T16" s="3">
+        <v>799</v>
+      </c>
+      <c r="U16" s="3">
+        <v>936</v>
+      </c>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>78</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>112</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>165</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>206</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>260</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>314</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <v>352</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="3">
         <v>455</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>614</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>763</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>841</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>1024</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>1291</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>1422</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>1713</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>1905</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
+      <c r="R17" s="3">
+        <v>2144</v>
+      </c>
+      <c r="S17" s="3">
+        <v>2301</v>
+      </c>
+      <c r="T17" s="3">
+        <v>2519</v>
+      </c>
+      <c r="U17" s="3">
+        <v>2776</v>
+      </c>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>14</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>23</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>32</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>42</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>88</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>149</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>205</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="3">
         <v>280</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>369</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>566</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>602</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>650</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>802</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>912</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>1130</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>1320</v>
       </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
+      <c r="R18" s="3">
+        <v>1533</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1602</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1674</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1806</v>
+      </c>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>24</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>26</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>28</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>37</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>44</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>62</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>73</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>103</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>139</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>159</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>192</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>241</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>328</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <v>384</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>447</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
+      <c r="R19" s="3">
+        <v>500</v>
+      </c>
+      <c r="S19" s="3">
+        <v>556</v>
+      </c>
+      <c r="T19" s="3">
+        <v>624</v>
+      </c>
+      <c r="U19" s="3">
+        <v>686</v>
+      </c>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>7</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>8</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>9</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>15</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>17</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>19</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>26</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <v>27</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>41</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>56</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>103</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>134</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>162</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>209</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <v>257</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="3">
         <v>304</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
+      <c r="R20" s="3">
+        <v>354</v>
+      </c>
+      <c r="S20" s="3">
+        <v>379</v>
+      </c>
+      <c r="T20" s="3">
+        <v>379</v>
+      </c>
+      <c r="U20" s="3">
+        <v>375</v>
+      </c>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>454</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>505</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>623</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>694</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>783</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>940</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>1297</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="3">
         <v>1453</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="3">
         <v>1775</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="3">
         <v>1989</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="3">
         <v>2274</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>2488</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>2953</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>3169</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <v>3677</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <v>4214</v>
       </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
+      <c r="R21" s="3">
+        <v>4644</v>
+      </c>
+      <c r="S21" s="3">
+        <v>4986</v>
+      </c>
+      <c r="T21" s="3">
+        <v>5351</v>
+      </c>
+      <c r="U21" s="3">
+        <v>5745</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <f t="shared" ref="B22:G22" si="0">SUM(B2:B21)</f>
         <v>3916</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>5061</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>6387</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>7985</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <f t="shared" si="0"/>
         <v>8514</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <f t="shared" si="0"/>
         <v>10590</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <f>SUM(H2:H21)</f>
         <v>12839</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="3">
         <f>SUM(I2:I21)</f>
         <v>14955</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="3">
         <f>SUM(J2:J21)</f>
         <v>17750</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="3">
         <f>SUM(K2:K21)</f>
         <v>20603</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="3">
         <f>SUM(L2:L21)</f>
         <v>23073</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="3">
         <f>SUM(M2:M21)</f>
         <v>26062</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="3">
         <f>SUM(N2:N21)</f>
         <v>28710</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="3">
         <f>SUM(O2:O21)</f>
         <v>33190</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="3">
         <f>SUM(P2:P21)</f>
         <v>37860</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="3">
         <f>SUM(Q2:Q21)</f>
         <v>42667</v>
+      </c>
+      <c r="R22" s="3">
+        <f>SUM(R2:R21)</f>
+        <v>46638</v>
+      </c>
+      <c r="S22" s="3">
+        <f>SUM(S2:S21)</f>
+        <v>50418</v>
+      </c>
+      <c r="T22" s="3">
+        <f>SUM(T2:T21)</f>
+        <v>54030</v>
+      </c>
+      <c r="U22" s="3">
+        <f>SUM(U2:U21)</f>
+        <v>57521</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22724"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22725"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DC161C7-8AD3-4C95-BCDD-5B3446CC332C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67B2E7BD-7B50-4BEF-B6F4-B02213AC72FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,18 +461,19 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U22"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="9" width="10.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="9" width="10.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="18" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -539,6 +540,12 @@
       <c r="U1" s="5">
         <v>43915</v>
       </c>
+      <c r="V1" s="5">
+        <v>43916</v>
+      </c>
+      <c r="W1" s="5">
+        <v>43917</v>
+      </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="4" t="s">
@@ -604,8 +611,12 @@
       <c r="U2" s="3">
         <v>738</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="V2" s="2">
+        <v>860</v>
+      </c>
+      <c r="W2" s="2">
+        <v>925</v>
+      </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -682,8 +693,12 @@
       <c r="U3" s="3">
         <v>112</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="V3" s="2">
+        <v>133</v>
+      </c>
+      <c r="W3" s="2">
+        <v>147</v>
+      </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
@@ -760,8 +775,12 @@
       <c r="U4" s="3">
         <v>333</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
+      <c r="V4" s="2">
+        <v>372</v>
+      </c>
+      <c r="W4" s="2">
+        <v>469</v>
+      </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
@@ -838,8 +857,12 @@
       <c r="U5" s="3">
         <v>1072</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
+      <c r="V5" s="2">
+        <v>1169</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1292</v>
+      </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
@@ -916,8 +939,12 @@
       <c r="U6" s="3">
         <v>8256</v>
       </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
+      <c r="V6" s="2">
+        <v>8850</v>
+      </c>
+      <c r="W6" s="2">
+        <v>9361</v>
+      </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
@@ -994,8 +1021,12 @@
       <c r="U7" s="3">
         <v>911</v>
       </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
+      <c r="V7" s="2">
+        <v>954</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1027</v>
+      </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
@@ -1072,8 +1103,12 @@
       <c r="U8" s="3">
         <v>1675</v>
       </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
+      <c r="V8" s="2">
+        <v>1835</v>
+      </c>
+      <c r="W8" s="2">
+        <v>2013</v>
+      </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
@@ -1150,8 +1185,12 @@
       <c r="U9" s="3">
         <v>1826</v>
       </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
+      <c r="V9" s="2">
+        <v>2027</v>
+      </c>
+      <c r="W9" s="2">
+        <v>2060</v>
+      </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
@@ -1228,8 +1267,12 @@
       <c r="U10" s="3">
         <v>20591</v>
       </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
+      <c r="V10" s="2">
+        <v>22189</v>
+      </c>
+      <c r="W10" s="2">
+        <v>23895</v>
+      </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
@@ -1306,8 +1349,12 @@
       <c r="U11" s="3">
         <v>2639</v>
       </c>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
+      <c r="V11" s="2">
+        <v>2795</v>
+      </c>
+      <c r="W11" s="2">
+        <v>2850</v>
+      </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
@@ -1384,8 +1431,12 @@
       <c r="U12" s="3">
         <v>53</v>
       </c>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
+      <c r="V12" s="2">
+        <v>81</v>
+      </c>
+      <c r="W12" s="2">
+        <v>86</v>
+      </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
@@ -1462,8 +1513,12 @@
       <c r="U13" s="3">
         <v>5556</v>
       </c>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
+      <c r="V13" s="2">
+        <v>5950</v>
+      </c>
+      <c r="W13" s="2">
+        <v>6347</v>
+      </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
@@ -1540,8 +1595,12 @@
       <c r="U14" s="3">
         <v>1023</v>
       </c>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
+      <c r="V14" s="2">
+        <v>1095</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1236</v>
+      </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
@@ -1618,8 +1677,12 @@
       <c r="U15" s="3">
         <v>412</v>
       </c>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
+      <c r="V15" s="2">
+        <v>462</v>
+      </c>
+      <c r="W15" s="2">
+        <v>496</v>
+      </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
@@ -1696,8 +1759,12 @@
       <c r="U16" s="3">
         <v>936</v>
       </c>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
+      <c r="V16" s="2">
+        <v>1095</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1158</v>
+      </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
@@ -1774,8 +1841,12 @@
       <c r="U17" s="3">
         <v>2776</v>
       </c>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
+      <c r="V17" s="2">
+        <v>2973</v>
+      </c>
+      <c r="W17" s="2">
+        <v>3170</v>
+      </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
@@ -1852,8 +1923,12 @@
       <c r="U18" s="3">
         <v>1806</v>
       </c>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
+      <c r="V18" s="2">
+        <v>1885</v>
+      </c>
+      <c r="W18" s="2">
+        <v>1997</v>
+      </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
@@ -1930,8 +2005,12 @@
       <c r="U19" s="3">
         <v>686</v>
       </c>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
+      <c r="V19" s="2">
+        <v>770</v>
+      </c>
+      <c r="W19" s="2">
+        <v>824</v>
+      </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
@@ -2008,8 +2087,12 @@
       <c r="U20" s="3">
         <v>375</v>
       </c>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
+      <c r="V20" s="2">
+        <v>378</v>
+      </c>
+      <c r="W20" s="2">
+        <v>413</v>
+      </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
@@ -2086,8 +2169,12 @@
       <c r="U21" s="3">
         <v>5745</v>
       </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
+      <c r="V21" s="2">
+        <v>6140</v>
+      </c>
+      <c r="W21" s="2">
+        <v>6648</v>
+      </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
@@ -2184,6 +2271,14 @@
         <f>SUM(U2:U21)</f>
         <v>57521</v>
       </c>
+      <c r="V22" s="3">
+        <f>SUM(V2:V21)</f>
+        <v>62013</v>
+      </c>
+      <c r="W22" s="3">
+        <f>SUM(W2:W21)</f>
+        <v>66414</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22729"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67B2E7BD-7B50-4BEF-B6F4-B02213AC72FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A7FFB86-1BE6-405B-ABC9-844B0BB11A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="activeCases" sheetId="1" r:id="rId1"/>
+    <sheet name="totalCases" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Region</t>
   </si>
@@ -92,6 +93,15 @@
   <si>
     <t>Italia</t>
   </si>
+  <si>
+    <t>Cured</t>
+  </si>
+  <si>
+    <t>Deceased</t>
+  </si>
+  <si>
+    <t>Total number of cases</t>
+  </si>
 </sst>
 </file>
 
@@ -137,13 +147,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -460,20 +471,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AA1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="5" max="9" width="10.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="18" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="19" max="20" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="23" max="26" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -546,6 +559,21 @@
       <c r="W1" s="5">
         <v>43917</v>
       </c>
+      <c r="X1" s="5">
+        <v>43918</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>43919</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>43920</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>43921</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>43922</v>
+      </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="4" t="s">
@@ -617,11 +645,21 @@
       <c r="W2" s="2">
         <v>925</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="X2" s="2">
+        <v>1027</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1169</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1169</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1191</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1211</v>
+      </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -699,11 +737,21 @@
       <c r="W3" s="2">
         <v>147</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="X3" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>197</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>216</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>225</v>
+      </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -781,11 +829,21 @@
       <c r="W4" s="2">
         <v>469</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="X4" s="2">
+        <v>523</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>577</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>602</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>606</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>610</v>
+      </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
@@ -863,11 +921,21 @@
       <c r="W5" s="2">
         <v>1292</v>
       </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="X5" s="2">
+        <v>1407</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1556</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1739</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1871</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1976</v>
+      </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
@@ -945,11 +1013,21 @@
       <c r="W6" s="2">
         <v>9361</v>
       </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="X6" s="2">
+        <v>9964</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>10535</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>10766</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>10953</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>11489</v>
+      </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -1027,11 +1105,21 @@
       <c r="W7" s="2">
         <v>1027</v>
       </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="X7" s="2">
+        <v>1120</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1141</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1109</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1160</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1206</v>
+      </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -1109,11 +1197,21 @@
       <c r="W8" s="2">
         <v>2013</v>
       </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
+      <c r="X8" s="2">
+        <v>2181</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>2362</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>2497</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>2642</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>2758</v>
+      </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -1191,11 +1289,21 @@
       <c r="W9" s="2">
         <v>2060</v>
       </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
+      <c r="X9" s="2">
+        <v>2086</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>2279</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>2383</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>2508</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>2645</v>
+      </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
@@ -1273,11 +1381,21 @@
       <c r="W10" s="2">
         <v>23895</v>
       </c>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="X10" s="2">
+        <v>24509</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>25392</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>25006</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>25124</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>25765</v>
+      </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -1355,11 +1473,21 @@
       <c r="W11" s="2">
         <v>2850</v>
       </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
+      <c r="X11" s="2">
+        <v>2999</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>3160</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>3251</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>3352</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>3456</v>
+      </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -1437,11 +1565,21 @@
       <c r="W12" s="2">
         <v>86</v>
       </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="X12" s="2">
+        <v>98</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>107</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>117</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>131</v>
+      </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -1519,11 +1657,21 @@
       <c r="W13" s="2">
         <v>6347</v>
       </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
+      <c r="X13" s="2">
+        <v>6851</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>7268</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>7655</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>8082</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>8470</v>
+      </c>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -1601,11 +1749,21 @@
       <c r="W14" s="2">
         <v>1236</v>
       </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="X14" s="2">
+        <v>1358</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>1432</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>1585</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>1654</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>1756</v>
+      </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -1683,11 +1841,21 @@
       <c r="W15" s="2">
         <v>496</v>
       </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="X15" s="2">
+        <v>569</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>622</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>657</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>675</v>
+      </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -1765,11 +1933,21 @@
       <c r="W16" s="2">
         <v>1158</v>
       </c>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="X16" s="2">
+        <v>1242</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>1330</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>1408</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>1492</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>1544</v>
+      </c>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -1847,11 +2025,21 @@
       <c r="W17" s="2">
         <v>3170</v>
       </c>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
+      <c r="X17" s="2">
+        <v>3511</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>3786</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>4050</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>4226</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>4432</v>
+      </c>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -1929,11 +2117,21 @@
       <c r="W18" s="2">
         <v>1997</v>
       </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
+      <c r="X18" s="2">
+        <v>2163</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>2327</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>2455</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>2531</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>2595</v>
+      </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -2011,11 +2209,21 @@
       <c r="W19" s="2">
         <v>824</v>
       </c>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
+      <c r="X19" s="2">
+        <v>898</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>897</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>834</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>851</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>864</v>
+      </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
@@ -2093,11 +2301,21 @@
       <c r="W20" s="2">
         <v>413</v>
       </c>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
+      <c r="X20" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>518</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>552</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>540</v>
+      </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
@@ -2175,11 +2393,21 @@
       <c r="W21" s="2">
         <v>6648</v>
       </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
+      <c r="X21" s="2">
+        <v>6913</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>7251</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>7564</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>7850</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>8224</v>
+      </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -2279,6 +2507,446 @@
         <f>SUM(W2:W21)</f>
         <v>66414</v>
       </c>
+      <c r="X22" s="3">
+        <f t="shared" ref="X22:AB22" si="1">SUM(X2:X21)</f>
+        <v>70065</v>
+      </c>
+      <c r="Y22" s="3">
+        <f t="shared" si="1"/>
+        <v>73880</v>
+      </c>
+      <c r="Z22" s="3">
+        <f t="shared" si="1"/>
+        <v>75528</v>
+      </c>
+      <c r="AA22" s="3">
+        <f t="shared" si="1"/>
+        <v>77635</v>
+      </c>
+      <c r="AB22" s="3">
+        <f t="shared" si="1"/>
+        <v>80572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370018BD-AF2C-484B-9235-3FE7A6C4791B}">
+  <dimension ref="A1:AC4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AA1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="27" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="28" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" t="str">
+        <f>activeCases!A1</f>
+        <v>Region</v>
+      </c>
+      <c r="B1" s="6">
+        <f>activeCases!B1</f>
+        <v>43896</v>
+      </c>
+      <c r="C1" s="6">
+        <f>activeCases!C1</f>
+        <v>43897</v>
+      </c>
+      <c r="D1" s="6">
+        <f>activeCases!D1</f>
+        <v>43898</v>
+      </c>
+      <c r="E1" s="6">
+        <f>activeCases!E1</f>
+        <v>43899</v>
+      </c>
+      <c r="F1" s="6">
+        <f>activeCases!F1</f>
+        <v>43900</v>
+      </c>
+      <c r="G1" s="6">
+        <f>activeCases!G1</f>
+        <v>43901</v>
+      </c>
+      <c r="H1" s="6">
+        <f>activeCases!H1</f>
+        <v>43902</v>
+      </c>
+      <c r="I1" s="6">
+        <f>activeCases!I1</f>
+        <v>43903</v>
+      </c>
+      <c r="J1" s="6">
+        <f>activeCases!J1</f>
+        <v>43904</v>
+      </c>
+      <c r="K1" s="6">
+        <f>activeCases!K1</f>
+        <v>43905</v>
+      </c>
+      <c r="L1" s="6">
+        <f>activeCases!L1</f>
+        <v>43906</v>
+      </c>
+      <c r="M1" s="6">
+        <f>activeCases!M1</f>
+        <v>43907</v>
+      </c>
+      <c r="N1" s="6">
+        <f>activeCases!N1</f>
+        <v>43908</v>
+      </c>
+      <c r="O1" s="6">
+        <f>activeCases!O1</f>
+        <v>43909</v>
+      </c>
+      <c r="P1" s="6">
+        <f>activeCases!P1</f>
+        <v>43910</v>
+      </c>
+      <c r="Q1" s="6">
+        <f>activeCases!Q1</f>
+        <v>43911</v>
+      </c>
+      <c r="R1" s="6">
+        <f>activeCases!R1</f>
+        <v>43912</v>
+      </c>
+      <c r="S1" s="6">
+        <f>activeCases!S1</f>
+        <v>43913</v>
+      </c>
+      <c r="T1" s="6">
+        <f>activeCases!T1</f>
+        <v>43914</v>
+      </c>
+      <c r="U1" s="6">
+        <f>activeCases!U1</f>
+        <v>43915</v>
+      </c>
+      <c r="V1" s="6">
+        <f>activeCases!V1</f>
+        <v>43916</v>
+      </c>
+      <c r="W1" s="6">
+        <f>activeCases!W1</f>
+        <v>43917</v>
+      </c>
+      <c r="X1" s="6">
+        <f>activeCases!X1</f>
+        <v>43918</v>
+      </c>
+      <c r="Y1" s="6">
+        <f>activeCases!Y1</f>
+        <v>43919</v>
+      </c>
+      <c r="Z1" s="6">
+        <f>activeCases!Z1</f>
+        <v>43920</v>
+      </c>
+      <c r="AA1" s="6">
+        <f>activeCases!AA1</f>
+        <v>43921</v>
+      </c>
+      <c r="AB1" s="6">
+        <f>activeCases!AB1</f>
+        <v>43922</v>
+      </c>
+      <c r="AC1" s="6"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>523</v>
+      </c>
+      <c r="C2">
+        <v>589</v>
+      </c>
+      <c r="D2">
+        <v>622</v>
+      </c>
+      <c r="E2">
+        <v>724</v>
+      </c>
+      <c r="F2">
+        <v>1004</v>
+      </c>
+      <c r="G2">
+        <v>1045</v>
+      </c>
+      <c r="H2">
+        <v>1258</v>
+      </c>
+      <c r="I2">
+        <v>1439</v>
+      </c>
+      <c r="J2">
+        <v>1966</v>
+      </c>
+      <c r="K2">
+        <v>2335</v>
+      </c>
+      <c r="L2">
+        <v>2749</v>
+      </c>
+      <c r="M2">
+        <v>2941</v>
+      </c>
+      <c r="N2">
+        <v>4025</v>
+      </c>
+      <c r="O2">
+        <v>4440</v>
+      </c>
+      <c r="P2">
+        <v>5129</v>
+      </c>
+      <c r="Q2">
+        <v>6072</v>
+      </c>
+      <c r="R2">
+        <v>7024</v>
+      </c>
+      <c r="S2">
+        <v>7432</v>
+      </c>
+      <c r="T2">
+        <v>8326</v>
+      </c>
+      <c r="U2">
+        <v>9362</v>
+      </c>
+      <c r="V2">
+        <v>10361</v>
+      </c>
+      <c r="W2">
+        <v>10950</v>
+      </c>
+      <c r="X2">
+        <v>12384</v>
+      </c>
+      <c r="Y2">
+        <v>13030</v>
+      </c>
+      <c r="Z2">
+        <v>14620</v>
+      </c>
+      <c r="AA2">
+        <v>15729</v>
+      </c>
+      <c r="AB2">
+        <v>16847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>197</v>
+      </c>
+      <c r="C3">
+        <v>233</v>
+      </c>
+      <c r="D3">
+        <v>366</v>
+      </c>
+      <c r="E3">
+        <v>463</v>
+      </c>
+      <c r="F3">
+        <v>631</v>
+      </c>
+      <c r="G3">
+        <v>827</v>
+      </c>
+      <c r="H3">
+        <v>1016</v>
+      </c>
+      <c r="I3">
+        <v>1266</v>
+      </c>
+      <c r="J3">
+        <v>1441</v>
+      </c>
+      <c r="K3">
+        <v>1809</v>
+      </c>
+      <c r="L3">
+        <v>2158</v>
+      </c>
+      <c r="M3">
+        <v>2503</v>
+      </c>
+      <c r="N3">
+        <v>2978</v>
+      </c>
+      <c r="O3">
+        <v>3405</v>
+      </c>
+      <c r="P3">
+        <v>4032</v>
+      </c>
+      <c r="Q3">
+        <v>4825</v>
+      </c>
+      <c r="R3">
+        <v>5476</v>
+      </c>
+      <c r="S3">
+        <v>6077</v>
+      </c>
+      <c r="T3">
+        <v>6820</v>
+      </c>
+      <c r="U3">
+        <v>7503</v>
+      </c>
+      <c r="V3">
+        <v>8165</v>
+      </c>
+      <c r="W3">
+        <v>9134</v>
+      </c>
+      <c r="X3">
+        <v>10023</v>
+      </c>
+      <c r="Y3">
+        <v>10779</v>
+      </c>
+      <c r="Z3">
+        <v>11591</v>
+      </c>
+      <c r="AA3">
+        <v>12428</v>
+      </c>
+      <c r="AB3">
+        <v>13155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <f>SUM(activeCases!B22,B2:B3)</f>
+        <v>4636</v>
+      </c>
+      <c r="C4" s="2">
+        <f>SUM(activeCases!C22,C2:C3)</f>
+        <v>5883</v>
+      </c>
+      <c r="D4" s="2">
+        <f>SUM(activeCases!D22,D2:D3)</f>
+        <v>7375</v>
+      </c>
+      <c r="E4" s="2">
+        <f>SUM(activeCases!E22,E2:E3)</f>
+        <v>9172</v>
+      </c>
+      <c r="F4" s="2">
+        <f>SUM(activeCases!F22,F2:F3)</f>
+        <v>10149</v>
+      </c>
+      <c r="G4" s="2">
+        <f>SUM(activeCases!G22,G2:G3)</f>
+        <v>12462</v>
+      </c>
+      <c r="H4" s="2">
+        <f>SUM(activeCases!H22,H2:H3)</f>
+        <v>15113</v>
+      </c>
+      <c r="I4" s="2">
+        <f>SUM(activeCases!I22,I2:I3)</f>
+        <v>17660</v>
+      </c>
+      <c r="J4" s="2">
+        <f>SUM(activeCases!J22,J2:J3)</f>
+        <v>21157</v>
+      </c>
+      <c r="K4" s="2">
+        <f>SUM(activeCases!K22,K2:K3)</f>
+        <v>24747</v>
+      </c>
+      <c r="L4" s="2">
+        <f>SUM(activeCases!L22,L2:L3)</f>
+        <v>27980</v>
+      </c>
+      <c r="M4" s="2">
+        <f>SUM(activeCases!M22,M2:M3)</f>
+        <v>31506</v>
+      </c>
+      <c r="N4" s="2">
+        <f>SUM(activeCases!N22,N2:N3)</f>
+        <v>35713</v>
+      </c>
+      <c r="O4" s="2">
+        <f>SUM(activeCases!O22,O2:O3)</f>
+        <v>41035</v>
+      </c>
+      <c r="P4" s="2">
+        <f>SUM(activeCases!P22,P2:P3)</f>
+        <v>47021</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>SUM(activeCases!Q22,Q2:Q3)</f>
+        <v>53564</v>
+      </c>
+      <c r="R4" s="2">
+        <f>SUM(activeCases!R22,R2:R3)</f>
+        <v>59138</v>
+      </c>
+      <c r="S4" s="2">
+        <f>SUM(activeCases!S22,S2:S3)</f>
+        <v>63927</v>
+      </c>
+      <c r="T4" s="2">
+        <f>SUM(activeCases!T22,T2:T3)</f>
+        <v>69176</v>
+      </c>
+      <c r="U4" s="2">
+        <f>SUM(activeCases!U22,U2:U3)</f>
+        <v>74386</v>
+      </c>
+      <c r="V4" s="2">
+        <f>SUM(activeCases!V22,V2:V3)</f>
+        <v>80539</v>
+      </c>
+      <c r="W4" s="2">
+        <f>SUM(activeCases!W22,W2:W3)</f>
+        <v>86498</v>
+      </c>
+      <c r="X4" s="2">
+        <f>SUM(activeCases!X22,X2:X3)</f>
+        <v>92472</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>SUM(activeCases!Y22,Y2:Y3)</f>
+        <v>97689</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>SUM(activeCases!Z22,Z2:Z3)</f>
+        <v>101739</v>
+      </c>
+      <c r="AA4" s="2">
+        <f>SUM(activeCases!AA22,AA2:AA3)</f>
+        <v>105792</v>
+      </c>
+      <c r="AB4" s="2">
+        <f>SUM(activeCases!AB22,AB2:AB3)</f>
+        <v>110574</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22729"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A7FFB86-1BE6-405B-ABC9-844B0BB11A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C4D93D0-3BBB-466A-870F-140F8F67D412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AA1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -486,7 +486,8 @@
     <col min="22" max="22" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="23" max="26" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -574,6 +575,9 @@
       <c r="AB1" s="5">
         <v>43922</v>
       </c>
+      <c r="AC1" s="5">
+        <v>43923</v>
+      </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="4" t="s">
@@ -660,7 +664,9 @@
       <c r="AB2" s="2">
         <v>1211</v>
       </c>
-      <c r="AC2" s="2"/>
+      <c r="AC2" s="2">
+        <v>1251</v>
+      </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
@@ -752,7 +758,9 @@
       <c r="AB3" s="2">
         <v>225</v>
       </c>
-      <c r="AC3" s="2"/>
+      <c r="AC3" s="2">
+        <v>233</v>
+      </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
@@ -844,7 +852,9 @@
       <c r="AB4" s="2">
         <v>610</v>
       </c>
-      <c r="AC4" s="2"/>
+      <c r="AC4" s="2">
+        <v>627</v>
+      </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -936,7 +946,9 @@
       <c r="AB5" s="2">
         <v>1976</v>
       </c>
-      <c r="AC5" s="2"/>
+      <c r="AC5" s="2">
+        <v>2140</v>
+      </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -1028,7 +1040,9 @@
       <c r="AB6" s="2">
         <v>11489</v>
       </c>
-      <c r="AC6" s="2"/>
+      <c r="AC6" s="2">
+        <v>11859</v>
+      </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -1120,7 +1134,9 @@
       <c r="AB7" s="2">
         <v>1206</v>
       </c>
-      <c r="AC7" s="2"/>
+      <c r="AC7" s="2">
+        <v>1294</v>
+      </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -1212,7 +1228,9 @@
       <c r="AB8" s="2">
         <v>2758</v>
       </c>
-      <c r="AC8" s="2"/>
+      <c r="AC8" s="2">
+        <v>2879</v>
+      </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -1304,7 +1322,9 @@
       <c r="AB9" s="2">
         <v>2645</v>
       </c>
-      <c r="AC9" s="2"/>
+      <c r="AC9" s="2">
+        <v>2660</v>
+      </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -1396,7 +1416,9 @@
       <c r="AB10" s="2">
         <v>25765</v>
       </c>
-      <c r="AC10" s="2"/>
+      <c r="AC10" s="2">
+        <v>25876</v>
+      </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -1488,7 +1510,9 @@
       <c r="AB11" s="2">
         <v>3456</v>
       </c>
-      <c r="AC11" s="2"/>
+      <c r="AC11" s="2">
+        <v>3555</v>
+      </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -1580,7 +1604,9 @@
       <c r="AB12" s="2">
         <v>131</v>
       </c>
-      <c r="AC12" s="2"/>
+      <c r="AC12" s="2">
+        <v>133</v>
+      </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -1672,7 +1698,9 @@
       <c r="AB13" s="2">
         <v>8470</v>
       </c>
-      <c r="AC13" s="2"/>
+      <c r="AC13" s="2">
+        <v>8799</v>
+      </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -1764,7 +1792,9 @@
       <c r="AB14" s="2">
         <v>1756</v>
       </c>
-      <c r="AC14" s="2"/>
+      <c r="AC14" s="2">
+        <v>1864</v>
+      </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -1856,7 +1886,9 @@
       <c r="AB15" s="2">
         <v>675</v>
       </c>
-      <c r="AC15" s="2"/>
+      <c r="AC15" s="2">
+        <v>718</v>
+      </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -1948,7 +1980,9 @@
       <c r="AB16" s="2">
         <v>1544</v>
       </c>
-      <c r="AC16" s="2"/>
+      <c r="AC16" s="2">
+        <v>1606</v>
+      </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -2040,7 +2074,9 @@
       <c r="AB17" s="2">
         <v>4432</v>
       </c>
-      <c r="AC17" s="2"/>
+      <c r="AC17" s="2">
+        <v>4789</v>
+      </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -2132,7 +2168,9 @@
       <c r="AB18" s="2">
         <v>2595</v>
       </c>
-      <c r="AC18" s="2"/>
+      <c r="AC18" s="2">
+        <v>2747</v>
+      </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -2224,7 +2262,9 @@
       <c r="AB19" s="2">
         <v>864</v>
       </c>
-      <c r="AC19" s="2"/>
+      <c r="AC19" s="2">
+        <v>885</v>
+      </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
@@ -2316,7 +2356,9 @@
       <c r="AB20" s="2">
         <v>540</v>
       </c>
-      <c r="AC20" s="2"/>
+      <c r="AC20" s="2">
+        <v>556</v>
+      </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
@@ -2408,7 +2450,9 @@
       <c r="AB21" s="2">
         <v>8224</v>
       </c>
-      <c r="AC21" s="2"/>
+      <c r="AC21" s="2">
+        <v>8578</v>
+      </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
@@ -2508,7 +2552,7 @@
         <v>66414</v>
       </c>
       <c r="X22" s="3">
-        <f t="shared" ref="X22:AB22" si="1">SUM(X2:X21)</f>
+        <f t="shared" ref="X22:AC22" si="1">SUM(X2:X21)</f>
         <v>70065</v>
       </c>
       <c r="Y22" s="3">
@@ -2526,6 +2570,10 @@
       <c r="AB22" s="3">
         <f t="shared" si="1"/>
         <v>80572</v>
+      </c>
+      <c r="AC22" s="3">
+        <f t="shared" si="1"/>
+        <v>83049</v>
       </c>
     </row>
   </sheetData>
@@ -2538,14 +2586,14 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AA1048576"/>
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="27" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="28" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="28" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -2661,7 +2709,10 @@
         <f>activeCases!AB1</f>
         <v>43922</v>
       </c>
-      <c r="AC1" s="6"/>
+      <c r="AC1" s="6">
+        <f>activeCases!AC1</f>
+        <v>43923</v>
+      </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
@@ -2748,6 +2799,9 @@
       <c r="AB2">
         <v>16847</v>
       </c>
+      <c r="AC2">
+        <v>18278</v>
+      </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
@@ -2834,6 +2888,9 @@
       <c r="AB3">
         <v>13155</v>
       </c>
+      <c r="AC3">
+        <v>13915</v>
+      </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
@@ -2946,6 +3003,10 @@
       <c r="AB4" s="2">
         <f>SUM(activeCases!AB22,AB2:AB3)</f>
         <v>110574</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>SUM(activeCases!AC22,AC2:AC3)</f>
+        <v>115242</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22729"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C4D93D0-3BBB-466A-870F-140F8F67D412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2EEFD1-9215-4C55-B52D-0B1FA14F9DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activeCases" sheetId="1" r:id="rId1"/>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -488,9 +488,11 @@
     <col min="27" max="27" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -578,8 +580,14 @@
       <c r="AC1" s="5">
         <v>43923</v>
       </c>
+      <c r="AD1" s="5">
+        <v>43924</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>43925</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -667,13 +675,18 @@
       <c r="AC2" s="2">
         <v>1251</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
+      <c r="AD2" s="2">
+        <v>1301</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1356</v>
+      </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,13 +774,18 @@
       <c r="AC3" s="2">
         <v>233</v>
       </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
+      <c r="AD3" s="2">
+        <v>247</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>244</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -855,13 +873,18 @@
       <c r="AC4" s="2">
         <v>627</v>
       </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
+      <c r="AD4" s="2">
+        <v>662</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>662</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -949,13 +972,18 @@
       <c r="AC5" s="2">
         <v>2140</v>
       </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="AD5" s="2">
+        <v>2352</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>2496</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1043,13 +1071,18 @@
       <c r="AC6" s="2">
         <v>11859</v>
       </c>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
+      <c r="AD6" s="2">
+        <v>12178</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>12523</v>
+      </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1137,13 +1170,18 @@
       <c r="AC7" s="2">
         <v>1294</v>
       </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
+      <c r="AD7" s="2">
+        <v>1324</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1336</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1231,13 +1269,18 @@
       <c r="AC8" s="2">
         <v>2879</v>
       </c>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
+      <c r="AD8" s="2">
+        <v>3009</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>3106</v>
+      </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1325,13 +1368,18 @@
       <c r="AC9" s="2">
         <v>2660</v>
       </c>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
+      <c r="AD9" s="2">
+        <v>2746</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>2894</v>
+      </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1419,13 +1467,18 @@
       <c r="AC10" s="2">
         <v>25876</v>
       </c>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
+      <c r="AD10" s="2">
+        <v>26189</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>27220</v>
+      </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1513,13 +1566,18 @@
       <c r="AC11" s="2">
         <v>3555</v>
       </c>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
+      <c r="AD11" s="2">
+        <v>3631</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>3497</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1607,13 +1665,18 @@
       <c r="AC12" s="2">
         <v>133</v>
       </c>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
+      <c r="AD12" s="2">
+        <v>144</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>171</v>
+      </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1701,13 +1764,18 @@
       <c r="AC13" s="2">
         <v>8799</v>
       </c>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
+      <c r="AD13" s="2">
+        <v>9130</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>9693</v>
+      </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1795,13 +1863,18 @@
       <c r="AC14" s="2">
         <v>1864</v>
       </c>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
+      <c r="AD14" s="2">
+        <v>1949</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>1973</v>
+      </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -1889,13 +1962,18 @@
       <c r="AC15" s="2">
         <v>718</v>
       </c>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
+      <c r="AD15" s="2">
+        <v>744</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>789</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -1983,13 +2061,18 @@
       <c r="AC16" s="2">
         <v>1606</v>
       </c>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
+      <c r="AD16" s="2">
+        <v>1664</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>1726</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -2077,13 +2160,18 @@
       <c r="AC17" s="2">
         <v>4789</v>
       </c>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
+      <c r="AD17" s="2">
+        <v>4909</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>5054</v>
+      </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2171,13 +2259,18 @@
       <c r="AC18" s="2">
         <v>2747</v>
       </c>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
+      <c r="AD18" s="2">
+        <v>2868</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>2954</v>
+      </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -2265,13 +2358,18 @@
       <c r="AC19" s="2">
         <v>885</v>
       </c>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
+      <c r="AD19" s="2">
+        <v>920</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>927</v>
+      </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -2359,13 +2457,18 @@
       <c r="AC20" s="2">
         <v>556</v>
       </c>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
+      <c r="AD20" s="2">
+        <v>560</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>560</v>
+      </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -2453,13 +2556,18 @@
       <c r="AC21" s="2">
         <v>8578</v>
       </c>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
+      <c r="AD21" s="2">
+        <v>8861</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>9093</v>
+      </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -2552,7 +2660,7 @@
         <v>66414</v>
       </c>
       <c r="X22" s="3">
-        <f t="shared" ref="X22:AC22" si="1">SUM(X2:X21)</f>
+        <f t="shared" ref="X22:AE22" si="1">SUM(X2:X21)</f>
         <v>70065</v>
       </c>
       <c r="Y22" s="3">
@@ -2574,6 +2682,14 @@
       <c r="AC22" s="3">
         <f t="shared" si="1"/>
         <v>83049</v>
+      </c>
+      <c r="AD22" s="3">
+        <f t="shared" si="1"/>
+        <v>85388</v>
+      </c>
+      <c r="AE22" s="3">
+        <f t="shared" si="1"/>
+        <v>88274</v>
       </c>
     </row>
   </sheetData>
@@ -2583,10 +2699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370018BD-AF2C-484B-9235-3FE7A6C4791B}">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2594,9 +2710,11 @@
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="28" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:31">
       <c r="A1" t="str">
         <f>activeCases!A1</f>
         <v>Region</v>
@@ -2713,8 +2831,16 @@
         <f>activeCases!AC1</f>
         <v>43923</v>
       </c>
+      <c r="AD1" s="6">
+        <f>activeCases!AD1</f>
+        <v>43924</v>
+      </c>
+      <c r="AE1" s="6">
+        <f>activeCases!AE1</f>
+        <v>43925</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2802,8 +2928,14 @@
       <c r="AC2">
         <v>18278</v>
       </c>
+      <c r="AD2">
+        <v>19758</v>
+      </c>
+      <c r="AE2">
+        <v>20996</v>
+      </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2891,8 +3023,14 @@
       <c r="AC3">
         <v>13915</v>
       </c>
+      <c r="AD3">
+        <v>14681</v>
+      </c>
+      <c r="AE3">
+        <v>15362</v>
+      </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -3007,6 +3145,14 @@
       <c r="AC4" s="2">
         <f>SUM(activeCases!AC22,AC2:AC3)</f>
         <v>115242</v>
+      </c>
+      <c r="AD4" s="2">
+        <f>SUM(activeCases!AD22,AD2:AD3)</f>
+        <v>119827</v>
+      </c>
+      <c r="AE4" s="2">
+        <f>SUM(activeCases!AE22,AE2:AE3)</f>
+        <v>124632</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2EEFD1-9215-4C55-B52D-0B1FA14F9DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0898D2F-5E48-460D-8CBC-5EF572FFCC1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activeCases" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD22" sqref="AD22"/>
+      <selection activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -486,10 +486,8 @@
     <col min="22" max="22" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="23" max="26" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5703125" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="31" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -586,6 +584,18 @@
       <c r="AE1" s="5">
         <v>43925</v>
       </c>
+      <c r="AF1" s="5">
+        <v>43926</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>43927</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>43928</v>
+      </c>
+      <c r="AI1" s="5">
+        <v>43929</v>
+      </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
@@ -681,10 +691,18 @@
       <c r="AE2" s="2">
         <v>1356</v>
       </c>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
+      <c r="AF2" s="2">
+        <v>1420</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>1425</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>1491</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>1534</v>
+      </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="4" t="s">
@@ -780,10 +798,18 @@
       <c r="AE3" s="2">
         <v>244</v>
       </c>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
+      <c r="AF3" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>262</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>265</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>270</v>
+      </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
@@ -879,10 +905,18 @@
       <c r="AE4" s="2">
         <v>662</v>
       </c>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
+      <c r="AF4" s="2">
+        <v>706</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>722</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>733</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>755</v>
+      </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="4" t="s">
@@ -978,10 +1012,18 @@
       <c r="AE5" s="2">
         <v>2496</v>
       </c>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
+      <c r="AF5" s="2">
+        <v>2621</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>2698</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>2765</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>2859</v>
+      </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="4" t="s">
@@ -1077,10 +1119,18 @@
       <c r="AE6" s="2">
         <v>12523</v>
       </c>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
+      <c r="AF6" s="2">
+        <v>12837</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>13051</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>13048</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>13110</v>
+      </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="4" t="s">
@@ -1176,10 +1226,18 @@
       <c r="AE7" s="2">
         <v>1336</v>
       </c>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
+      <c r="AF7" s="2">
+        <v>1363</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>1396</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>1379</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>1415</v>
+      </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="4" t="s">
@@ -1275,10 +1333,18 @@
       <c r="AE8" s="2">
         <v>3106</v>
       </c>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
+      <c r="AF8" s="2">
+        <v>3186</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>3300</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>3365</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>3448</v>
+      </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="4" t="s">
@@ -1374,10 +1440,18 @@
       <c r="AE9" s="2">
         <v>2894</v>
       </c>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
+      <c r="AF9" s="2">
+        <v>3093</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>3117</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>3212</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>3245</v>
+      </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="4" t="s">
@@ -1473,10 +1547,18 @@
       <c r="AE10" s="2">
         <v>27220</v>
       </c>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
+      <c r="AF10" s="2">
+        <v>28124</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>28469</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>28343</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>28545</v>
+      </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="4" t="s">
@@ -1572,10 +1654,18 @@
       <c r="AE11" s="2">
         <v>3497</v>
       </c>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
+      <c r="AF11" s="2">
+        <v>3578</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>3706</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>3738</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>3562</v>
+      </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="4" t="s">
@@ -1671,10 +1761,18 @@
       <c r="AE12" s="2">
         <v>171</v>
       </c>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
+      <c r="AF12" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>187</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>185</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>181</v>
+      </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="4" t="s">
@@ -1770,10 +1868,18 @@
       <c r="AE13" s="2">
         <v>9693</v>
       </c>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
+      <c r="AF13" s="2">
+        <v>10177</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>10545</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>10704</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>10989</v>
+      </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="4" t="s">
@@ -1869,10 +1975,18 @@
       <c r="AE14" s="2">
         <v>1973</v>
       </c>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
+      <c r="AF14" s="2">
+        <v>2022</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>2115</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>2137</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>2238</v>
+      </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="4" t="s">
@@ -1968,10 +2082,18 @@
       <c r="AE15" s="2">
         <v>789</v>
       </c>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
+      <c r="AF15" s="2">
+        <v>815</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>819</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>821</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>840</v>
+      </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="4" t="s">
@@ -2067,10 +2189,18 @@
       <c r="AE16" s="2">
         <v>1726</v>
       </c>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
+      <c r="AF16" s="2">
+        <v>1774</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>1815</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>1859</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>1893</v>
+      </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="4" t="s">
@@ -2166,10 +2296,18 @@
       <c r="AE17" s="2">
         <v>5054</v>
       </c>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
+      <c r="AF17" s="2">
+        <v>5185</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>5301</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>5427</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>5557</v>
+      </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="4" t="s">
@@ -2265,10 +2403,18 @@
       <c r="AE18" s="2">
         <v>2954</v>
       </c>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
+      <c r="AF18" s="2">
+        <v>3021</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>3098</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>3191</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>3221</v>
+      </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="4" t="s">
@@ -2364,10 +2510,18 @@
       <c r="AE19" s="2">
         <v>927</v>
       </c>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
+      <c r="AF19" s="2">
+        <v>898</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>872</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>846</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>823</v>
+      </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="4" t="s">
@@ -2463,10 +2617,18 @@
       <c r="AE20" s="2">
         <v>560</v>
       </c>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
+      <c r="AF20" s="2">
+        <v>576</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>567</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>593</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>606</v>
+      </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="4" t="s">
@@ -2562,10 +2724,18 @@
       <c r="AE21" s="2">
         <v>9093</v>
       </c>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
+      <c r="AF21" s="2">
+        <v>9409</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>9722</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>9965</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>10171</v>
+      </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="4" t="s">
@@ -2660,7 +2830,7 @@
         <v>66414</v>
       </c>
       <c r="X22" s="3">
-        <f t="shared" ref="X22:AE22" si="1">SUM(X2:X21)</f>
+        <f t="shared" ref="X22:AG22" si="1">SUM(X2:X21)</f>
         <v>70065</v>
       </c>
       <c r="Y22" s="3">
@@ -2690,6 +2860,22 @@
       <c r="AE22" s="3">
         <f t="shared" si="1"/>
         <v>88274</v>
+      </c>
+      <c r="AF22" s="3">
+        <f t="shared" si="1"/>
+        <v>91246</v>
+      </c>
+      <c r="AG22" s="3">
+        <f t="shared" si="1"/>
+        <v>93187</v>
+      </c>
+      <c r="AH22" s="3">
+        <f>SUM(AH2:AH21)</f>
+        <v>94067</v>
+      </c>
+      <c r="AI22" s="3">
+        <f>SUM(AI2:AI21)</f>
+        <v>95262</v>
       </c>
     </row>
   </sheetData>
@@ -2699,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370018BD-AF2C-484B-9235-3FE7A6C4791B}">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2711,10 +2897,10 @@
     <col min="2" max="28" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.5703125" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:35">
       <c r="A1" t="str">
         <f>activeCases!A1</f>
         <v>Region</v>
@@ -2839,8 +3025,24 @@
         <f>activeCases!AE1</f>
         <v>43925</v>
       </c>
+      <c r="AF1" s="6">
+        <f>activeCases!AF1</f>
+        <v>43926</v>
+      </c>
+      <c r="AG1" s="6">
+        <f>activeCases!AG1</f>
+        <v>43927</v>
+      </c>
+      <c r="AH1" s="6">
+        <f>activeCases!AH1</f>
+        <v>43928</v>
+      </c>
+      <c r="AI1" s="6">
+        <f>activeCases!AI1</f>
+        <v>43929</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2934,8 +3136,20 @@
       <c r="AE2">
         <v>20996</v>
       </c>
+      <c r="AF2">
+        <v>21815</v>
+      </c>
+      <c r="AG2">
+        <v>22837</v>
+      </c>
+      <c r="AH2">
+        <v>24392</v>
+      </c>
+      <c r="AI2">
+        <v>26491</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3029,8 +3243,20 @@
       <c r="AE3">
         <v>15362</v>
       </c>
+      <c r="AF3">
+        <v>15887</v>
+      </c>
+      <c r="AG3">
+        <v>16532</v>
+      </c>
+      <c r="AH3">
+        <v>17127</v>
+      </c>
+      <c r="AI3">
+        <v>17660</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -3153,6 +3379,22 @@
       <c r="AE4" s="2">
         <f>SUM(activeCases!AE22,AE2:AE3)</f>
         <v>124632</v>
+      </c>
+      <c r="AF4" s="2">
+        <f>SUM(activeCases!AF22,AF2:AF3)</f>
+        <v>128948</v>
+      </c>
+      <c r="AG4" s="2">
+        <f>SUM(activeCases!AG22,AG2:AG3)</f>
+        <v>132556</v>
+      </c>
+      <c r="AH4" s="2">
+        <f>SUM(activeCases!AH22,AH2:AH3)</f>
+        <v>135586</v>
+      </c>
+      <c r="AI4" s="2">
+        <f>SUM(activeCases!AI22,AI2:AI3)</f>
+        <v>139413</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0898D2F-5E48-460D-8CBC-5EF572FFCC1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F770B4-A169-4B8A-BBEB-50F7EAD9971F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activeCases" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Region</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Italia</t>
+  </si>
+  <si>
+    <t>Groups</t>
   </si>
   <si>
     <t>Cured</t>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AI22" sqref="AI22"/>
+      <selection activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -486,11 +489,11 @@
     <col min="22" max="22" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="23" max="26" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="28" max="30" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="31" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="34" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="35" max="37" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:37">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -596,8 +599,14 @@
       <c r="AI1" s="5">
         <v>43929</v>
       </c>
+      <c r="AJ1" s="5">
+        <v>43930</v>
+      </c>
+      <c r="AK1" s="5">
+        <v>43931</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:37">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -703,8 +712,14 @@
       <c r="AI2" s="2">
         <v>1534</v>
       </c>
+      <c r="AJ2">
+        <v>1566</v>
+      </c>
+      <c r="AK2">
+        <v>1635</v>
+      </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:37">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -810,8 +825,14 @@
       <c r="AI3" s="2">
         <v>270</v>
       </c>
+      <c r="AJ3">
+        <v>275</v>
+      </c>
+      <c r="AK3">
+        <v>279</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:37">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -917,8 +938,14 @@
       <c r="AI4" s="2">
         <v>755</v>
       </c>
+      <c r="AJ4">
+        <v>765</v>
+      </c>
+      <c r="AK4">
+        <v>786</v>
+      </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:37">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1024,8 +1051,14 @@
       <c r="AI5" s="2">
         <v>2859</v>
       </c>
+      <c r="AJ5">
+        <v>2873</v>
+      </c>
+      <c r="AK5">
+        <v>2963</v>
+      </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:37">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1131,8 +1164,14 @@
       <c r="AI6" s="2">
         <v>13110</v>
       </c>
+      <c r="AJ6">
+        <v>13258</v>
+      </c>
+      <c r="AK6">
+        <v>13350</v>
+      </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:37">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1238,8 +1277,14 @@
       <c r="AI7" s="2">
         <v>1415</v>
       </c>
+      <c r="AJ7">
+        <v>1390</v>
+      </c>
+      <c r="AK7">
+        <v>1398</v>
+      </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:37">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1345,8 +1390,14 @@
       <c r="AI8" s="2">
         <v>3448</v>
       </c>
+      <c r="AJ8">
+        <v>3532</v>
+      </c>
+      <c r="AK8">
+        <v>3633</v>
+      </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:37">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1452,8 +1503,14 @@
       <c r="AI9" s="2">
         <v>3245</v>
       </c>
+      <c r="AJ9">
+        <v>3253</v>
+      </c>
+      <c r="AK9">
+        <v>3301</v>
+      </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:37">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1559,8 +1616,14 @@
       <c r="AI10" s="2">
         <v>28545</v>
       </c>
+      <c r="AJ10">
+        <v>29074</v>
+      </c>
+      <c r="AK10">
+        <v>29530</v>
+      </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:37">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1666,8 +1729,14 @@
       <c r="AI11" s="2">
         <v>3562</v>
       </c>
+      <c r="AJ11">
+        <v>3401</v>
+      </c>
+      <c r="AK11">
+        <v>3316</v>
+      </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:37">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1773,8 +1842,14 @@
       <c r="AI12" s="2">
         <v>181</v>
       </c>
+      <c r="AJ12">
+        <v>189</v>
+      </c>
+      <c r="AK12">
+        <v>193</v>
+      </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:37">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1880,8 +1955,14 @@
       <c r="AI13" s="2">
         <v>10989</v>
       </c>
+      <c r="AJ13">
+        <v>11336</v>
+      </c>
+      <c r="AK13">
+        <v>11576</v>
+      </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:37">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1987,8 +2068,14 @@
       <c r="AI14" s="2">
         <v>2238</v>
       </c>
+      <c r="AJ14">
+        <v>2301</v>
+      </c>
+      <c r="AK14">
+        <v>2336</v>
+      </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:37">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -2094,8 +2181,14 @@
       <c r="AI15" s="2">
         <v>840</v>
       </c>
+      <c r="AJ15">
+        <v>876</v>
+      </c>
+      <c r="AK15">
+        <v>876</v>
+      </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:37">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -2201,8 +2294,14 @@
       <c r="AI16" s="2">
         <v>1893</v>
       </c>
+      <c r="AJ16">
+        <v>1942</v>
+      </c>
+      <c r="AK16">
+        <v>1967</v>
+      </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:37">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -2308,8 +2407,14 @@
       <c r="AI17" s="2">
         <v>5557</v>
       </c>
+      <c r="AJ17">
+        <v>5703</v>
+      </c>
+      <c r="AK17">
+        <v>5822</v>
+      </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:37">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2415,8 +2520,14 @@
       <c r="AI18" s="2">
         <v>3221</v>
       </c>
+      <c r="AJ18">
+        <v>3293</v>
+      </c>
+      <c r="AK18">
+        <v>3311</v>
+      </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:37">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -2522,8 +2633,14 @@
       <c r="AI19" s="2">
         <v>823</v>
       </c>
+      <c r="AJ19">
+        <v>792</v>
+      </c>
+      <c r="AK19">
+        <v>752</v>
+      </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:37">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -2629,8 +2746,14 @@
       <c r="AI20" s="2">
         <v>606</v>
       </c>
+      <c r="AJ20">
+        <v>609</v>
+      </c>
+      <c r="AK20">
+        <v>602</v>
+      </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:37">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -2736,8 +2859,14 @@
       <c r="AI21" s="2">
         <v>10171</v>
       </c>
+      <c r="AJ21">
+        <v>10449</v>
+      </c>
+      <c r="AK21">
+        <v>10647</v>
+      </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:37">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -2876,6 +3005,14 @@
       <c r="AI22" s="3">
         <f>SUM(AI2:AI21)</f>
         <v>95262</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f t="shared" ref="AJ22:AK22" si="2">SUM(AJ2:AJ21)</f>
+        <v>96877</v>
+      </c>
+      <c r="AK22" s="3">
+        <f t="shared" si="2"/>
+        <v>98273</v>
       </c>
     </row>
   </sheetData>
@@ -2885,10 +3022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370018BD-AF2C-484B-9235-3FE7A6C4791B}">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2897,13 +3034,12 @@
     <col min="2" max="28" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.5703125" customWidth="1"/>
-    <col min="31" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="37" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" t="str">
-        <f>activeCases!A1</f>
-        <v>Region</v>
+    <row r="1" spans="1:37">
+      <c r="A1" t="s">
+        <v>22</v>
       </c>
       <c r="B1" s="6">
         <f>activeCases!B1</f>
@@ -3041,10 +3177,18 @@
         <f>activeCases!AI1</f>
         <v>43929</v>
       </c>
+      <c r="AJ1" s="6">
+        <f>activeCases!AJ1</f>
+        <v>43930</v>
+      </c>
+      <c r="AK1" s="6">
+        <f>activeCases!AK1</f>
+        <v>43931</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>523</v>
@@ -3148,10 +3292,16 @@
       <c r="AI2">
         <v>26491</v>
       </c>
+      <c r="AJ2">
+        <v>28470</v>
+      </c>
+      <c r="AK2">
+        <v>30455</v>
+      </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>197</v>
@@ -3255,10 +3405,16 @@
       <c r="AI3">
         <v>17660</v>
       </c>
+      <c r="AJ3">
+        <v>18279</v>
+      </c>
+      <c r="AK3">
+        <v>18849</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <f>SUM(activeCases!B22,B2:B3)</f>
@@ -3395,6 +3551,14 @@
       <c r="AI4" s="2">
         <f>SUM(activeCases!AI22,AI2:AI3)</f>
         <v>139413</v>
+      </c>
+      <c r="AJ4" s="2">
+        <f>SUM(activeCases!AJ22,AJ2:AJ3)</f>
+        <v>143626</v>
+      </c>
+      <c r="AK4" s="2">
+        <f>SUM(activeCases!AK22,AK2:AK3)</f>
+        <v>147577</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22812"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F770B4-A169-4B8A-BBEB-50F7EAD9971F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8902FC4-79CE-4178-A569-EEBBF2B53577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activeCases" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +125,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -158,6 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -472,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AK22" sqref="AK22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AN4" sqref="AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -489,11 +497,11 @@
     <col min="22" max="22" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="23" max="26" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="28" max="34" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="35" max="37" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="37" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="38" max="40" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:40">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -605,8 +613,17 @@
       <c r="AK1" s="5">
         <v>43931</v>
       </c>
+      <c r="AL1" s="5">
+        <v>43932</v>
+      </c>
+      <c r="AM1" s="5">
+        <v>43933</v>
+      </c>
+      <c r="AN1" s="5">
+        <v>43934</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:40">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -718,8 +735,17 @@
       <c r="AK2">
         <v>1635</v>
       </c>
+      <c r="AL2">
+        <v>1724</v>
+      </c>
+      <c r="AM2">
+        <v>1742</v>
+      </c>
+      <c r="AN2">
+        <v>1778</v>
+      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:40">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -831,8 +857,17 @@
       <c r="AK3">
         <v>279</v>
       </c>
+      <c r="AL3">
+        <v>281</v>
+      </c>
+      <c r="AM3">
+        <v>277</v>
+      </c>
+      <c r="AN3">
+        <v>270</v>
+      </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:40">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -944,8 +979,17 @@
       <c r="AK4">
         <v>786</v>
       </c>
+      <c r="AL4">
+        <v>792</v>
+      </c>
+      <c r="AM4">
+        <v>795</v>
+      </c>
+      <c r="AN4">
+        <v>791</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:40">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1057,8 +1101,17 @@
       <c r="AK5">
         <v>2963</v>
       </c>
+      <c r="AL5">
+        <v>3002</v>
+      </c>
+      <c r="AM5">
+        <v>3067</v>
+      </c>
+      <c r="AN5">
+        <v>3062</v>
+      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:40">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1170,8 +1223,17 @@
       <c r="AK6">
         <v>13350</v>
       </c>
+      <c r="AL6">
+        <v>13495</v>
+      </c>
+      <c r="AM6">
+        <v>13672</v>
+      </c>
+      <c r="AN6">
+        <v>13818</v>
+      </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:40">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1283,8 +1345,17 @@
       <c r="AK7">
         <v>1398</v>
       </c>
+      <c r="AL7">
+        <v>1382</v>
+      </c>
+      <c r="AM7">
+        <v>1326</v>
+      </c>
+      <c r="AN7">
+        <v>1307</v>
+      </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:40">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1396,8 +1467,17 @@
       <c r="AK8">
         <v>3633</v>
       </c>
+      <c r="AL8">
+        <v>3730</v>
+      </c>
+      <c r="AM8">
+        <v>3817</v>
+      </c>
+      <c r="AN8">
+        <v>3920</v>
+      </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:40">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1509,8 +1589,17 @@
       <c r="AK9">
         <v>3301</v>
       </c>
+      <c r="AL9">
+        <v>3333</v>
+      </c>
+      <c r="AM9">
+        <v>3333</v>
+      </c>
+      <c r="AN9">
+        <v>3365</v>
+      </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:40">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1622,8 +1711,17 @@
       <c r="AK10">
         <v>29530</v>
       </c>
+      <c r="AL10">
+        <v>30528</v>
+      </c>
+      <c r="AM10">
+        <v>31265</v>
+      </c>
+      <c r="AN10">
+        <v>31935</v>
+      </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:40">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1735,8 +1833,17 @@
       <c r="AK11">
         <v>3316</v>
       </c>
+      <c r="AL11">
+        <v>3231</v>
+      </c>
+      <c r="AM11">
+        <v>3114</v>
+      </c>
+      <c r="AN11">
+        <v>3080</v>
+      </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:40">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1848,8 +1955,17 @@
       <c r="AK12">
         <v>193</v>
       </c>
+      <c r="AL12">
+        <v>193</v>
+      </c>
+      <c r="AM12">
+        <v>202</v>
+      </c>
+      <c r="AN12">
+        <v>202</v>
+      </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:40">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1961,8 +2077,17 @@
       <c r="AK13">
         <v>11576</v>
       </c>
+      <c r="AL13">
+        <v>12170</v>
+      </c>
+      <c r="AM13">
+        <v>12505</v>
+      </c>
+      <c r="AN13">
+        <v>12765</v>
+      </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:40">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -2074,8 +2199,17 @@
       <c r="AK14">
         <v>2336</v>
       </c>
+      <c r="AL14">
+        <v>2402</v>
+      </c>
+      <c r="AM14">
+        <v>2452</v>
+      </c>
+      <c r="AN14">
+        <v>2512</v>
+      </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:40">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -2187,8 +2321,17 @@
       <c r="AK15">
         <v>876</v>
       </c>
+      <c r="AL15">
+        <v>888</v>
+      </c>
+      <c r="AM15">
+        <v>903</v>
+      </c>
+      <c r="AN15">
+        <v>914</v>
+      </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:40">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -2300,8 +2443,17 @@
       <c r="AK16">
         <v>1967</v>
       </c>
+      <c r="AL16">
+        <v>2001</v>
+      </c>
+      <c r="AM16">
+        <v>2030</v>
+      </c>
+      <c r="AN16">
+        <v>2050</v>
+      </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:40">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -2413,8 +2565,17 @@
       <c r="AK17">
         <v>5822</v>
       </c>
+      <c r="AL17">
+        <v>5992</v>
+      </c>
+      <c r="AM17">
+        <v>6162</v>
+      </c>
+      <c r="AN17">
+        <v>6257</v>
+      </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:40">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2526,8 +2687,17 @@
       <c r="AK18">
         <v>3311</v>
       </c>
+      <c r="AL18">
+        <v>3333</v>
+      </c>
+      <c r="AM18">
+        <v>3597</v>
+      </c>
+      <c r="AN18">
+        <v>3617</v>
+      </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:40">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -2639,8 +2809,17 @@
       <c r="AK19">
         <v>752</v>
       </c>
+      <c r="AL19">
+        <v>723</v>
+      </c>
+      <c r="AM19">
+        <v>687</v>
+      </c>
+      <c r="AN19">
+        <v>625</v>
+      </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:40">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -2752,8 +2931,17 @@
       <c r="AK20">
         <v>602</v>
       </c>
+      <c r="AL20">
+        <v>590</v>
+      </c>
+      <c r="AM20">
+        <v>588</v>
+      </c>
+      <c r="AN20">
+        <v>582</v>
+      </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:40">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -2865,8 +3053,17 @@
       <c r="AK21">
         <v>10647</v>
       </c>
+      <c r="AL21">
+        <v>10749</v>
+      </c>
+      <c r="AM21">
+        <v>10729</v>
+      </c>
+      <c r="AN21">
+        <v>10766</v>
+      </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:40">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -3007,12 +3204,24 @@
         <v>95262</v>
       </c>
       <c r="AJ22" s="3">
-        <f t="shared" ref="AJ22:AK22" si="2">SUM(AJ2:AJ21)</f>
+        <f t="shared" ref="AJ22" si="2">SUM(AJ2:AJ21)</f>
         <v>96877</v>
       </c>
       <c r="AK22" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(AK2:AK21)</f>
         <v>98273</v>
+      </c>
+      <c r="AL22" s="3">
+        <f t="shared" ref="AL22:AM22" si="3">SUM(AL2:AL21)</f>
+        <v>100539</v>
+      </c>
+      <c r="AM22" s="3">
+        <f t="shared" si="3"/>
+        <v>102263</v>
+      </c>
+      <c r="AN22" s="3">
+        <f>SUM(AN2:AN21)</f>
+        <v>103616</v>
       </c>
     </row>
   </sheetData>
@@ -3022,22 +3231,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370018BD-AF2C-484B-9235-3FE7A6C4791B}">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN4" sqref="AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="28" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5703125" customWidth="1"/>
-    <col min="31" max="37" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="37" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="38" max="40" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3185,8 +3392,20 @@
         <f>activeCases!AK1</f>
         <v>43931</v>
       </c>
+      <c r="AL1" s="6">
+        <f>activeCases!AL1</f>
+        <v>43932</v>
+      </c>
+      <c r="AM1" s="6">
+        <f>activeCases!AM1</f>
+        <v>43933</v>
+      </c>
+      <c r="AN1" s="6">
+        <f>activeCases!AN1</f>
+        <v>43934</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3298,8 +3517,17 @@
       <c r="AK2">
         <v>30455</v>
       </c>
+      <c r="AL2">
+        <v>32534</v>
+      </c>
+      <c r="AM2">
+        <v>34211</v>
+      </c>
+      <c r="AN2">
+        <v>35425</v>
+      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -3411,8 +3639,17 @@
       <c r="AK3">
         <v>18849</v>
       </c>
+      <c r="AL3">
+        <v>19468</v>
+      </c>
+      <c r="AM3">
+        <v>19899</v>
+      </c>
+      <c r="AN3">
+        <v>20465</v>
+      </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -3559,6 +3796,18 @@
       <c r="AK4" s="2">
         <f>SUM(activeCases!AK22,AK2:AK3)</f>
         <v>147577</v>
+      </c>
+      <c r="AL4" s="7">
+        <f>SUM(activeCases!AL22,AL2:AL3)</f>
+        <v>152541</v>
+      </c>
+      <c r="AM4" s="7">
+        <f>SUM(activeCases!AM22,AM2:AM3)</f>
+        <v>156373</v>
+      </c>
+      <c r="AN4" s="2">
+        <f>SUM(activeCases!AN22,AN2:AN3)</f>
+        <v>159506</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22812"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8902FC4-79CE-4178-A569-EEBBF2B53577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C463B6A4-716C-471D-9A9F-8F47558A8707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activeCases" sheetId="1" r:id="rId1"/>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN22"/>
+  <dimension ref="A1:AU22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN4" sqref="AN4"/>
+      <selection activeCell="AS1" sqref="AS1:AT22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -497,11 +497,11 @@
     <col min="22" max="22" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="23" max="26" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="28" max="37" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="38" max="40" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="40" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="41" max="47" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:47">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -622,8 +622,23 @@
       <c r="AN1" s="5">
         <v>43934</v>
       </c>
+      <c r="AO1" s="5">
+        <v>43935</v>
+      </c>
+      <c r="AP1" s="5">
+        <v>43936</v>
+      </c>
+      <c r="AQ1" s="5">
+        <v>43937</v>
+      </c>
+      <c r="AR1" s="5">
+        <v>43938</v>
+      </c>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -744,8 +759,20 @@
       <c r="AN2">
         <v>1778</v>
       </c>
+      <c r="AO2">
+        <v>1800</v>
+      </c>
+      <c r="AP2">
+        <v>1810</v>
+      </c>
+      <c r="AQ2">
+        <v>1850</v>
+      </c>
+      <c r="AR2">
+        <v>1942</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:47">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -866,8 +893,20 @@
       <c r="AN3">
         <v>270</v>
       </c>
+      <c r="AO3">
+        <v>265</v>
+      </c>
+      <c r="AP3">
+        <v>261</v>
+      </c>
+      <c r="AQ3">
+        <v>273</v>
+      </c>
+      <c r="AR3">
+        <v>266</v>
+      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:47">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -988,8 +1027,20 @@
       <c r="AN4">
         <v>791</v>
       </c>
+      <c r="AO4">
+        <v>816</v>
+      </c>
+      <c r="AP4">
+        <v>819</v>
+      </c>
+      <c r="AQ4">
+        <v>847</v>
+      </c>
+      <c r="AR4">
+        <v>819</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:47">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1110,8 +1161,20 @@
       <c r="AN5">
         <v>3062</v>
       </c>
+      <c r="AO5">
+        <v>3094</v>
+      </c>
+      <c r="AP5">
+        <v>3087</v>
+      </c>
+      <c r="AQ5">
+        <v>3118</v>
+      </c>
+      <c r="AR5">
+        <v>3027</v>
+      </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:47">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1232,8 +1295,20 @@
       <c r="AN6">
         <v>13818</v>
       </c>
+      <c r="AO6">
+        <v>13778</v>
+      </c>
+      <c r="AP6">
+        <v>13577</v>
+      </c>
+      <c r="AQ6">
+        <v>13663</v>
+      </c>
+      <c r="AR6">
+        <v>13585</v>
+      </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:47">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1354,8 +1429,20 @@
       <c r="AN7">
         <v>1307</v>
       </c>
+      <c r="AO7">
+        <v>899</v>
+      </c>
+      <c r="AP7">
+        <v>1394</v>
+      </c>
+      <c r="AQ7">
+        <v>1069</v>
+      </c>
+      <c r="AR7">
+        <v>1428</v>
+      </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:47">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1476,8 +1563,20 @@
       <c r="AN8">
         <v>3920</v>
       </c>
+      <c r="AO8">
+        <v>4022</v>
+      </c>
+      <c r="AP8">
+        <v>4047</v>
+      </c>
+      <c r="AQ8">
+        <v>4144</v>
+      </c>
+      <c r="AR8">
+        <v>4214</v>
+      </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:47">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1598,8 +1697,20 @@
       <c r="AN9">
         <v>3365</v>
       </c>
+      <c r="AO9">
+        <v>3466</v>
+      </c>
+      <c r="AP9">
+        <v>3464</v>
+      </c>
+      <c r="AQ9">
+        <v>3437</v>
+      </c>
+      <c r="AR9">
+        <v>3459</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:47">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1720,8 +1831,20 @@
       <c r="AN10">
         <v>31935</v>
       </c>
+      <c r="AO10">
+        <v>32363</v>
+      </c>
+      <c r="AP10">
+        <v>32921</v>
+      </c>
+      <c r="AQ10">
+        <v>33090</v>
+      </c>
+      <c r="AR10">
+        <v>33434</v>
+      </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:47">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1842,8 +1965,20 @@
       <c r="AN11">
         <v>3080</v>
       </c>
+      <c r="AO11">
+        <v>3095</v>
+      </c>
+      <c r="AP11">
+        <v>3097</v>
+      </c>
+      <c r="AQ11">
+        <v>3124</v>
+      </c>
+      <c r="AR11">
+        <v>3157</v>
+      </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:47">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1964,8 +2099,20 @@
       <c r="AN12">
         <v>202</v>
       </c>
+      <c r="AO12">
+        <v>200</v>
+      </c>
+      <c r="AP12">
+        <v>206</v>
+      </c>
+      <c r="AQ12">
+        <v>203</v>
+      </c>
+      <c r="AR12">
+        <v>208</v>
+      </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:47">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -2086,8 +2233,20 @@
       <c r="AN13">
         <v>12765</v>
       </c>
+      <c r="AO13">
+        <v>13055</v>
+      </c>
+      <c r="AP13">
+        <v>13195</v>
+      </c>
+      <c r="AQ13">
+        <v>13783</v>
+      </c>
+      <c r="AR13">
+        <v>13998</v>
+      </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:47">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -2208,8 +2367,20 @@
       <c r="AN14">
         <v>2512</v>
       </c>
+      <c r="AO14">
+        <v>2552</v>
+      </c>
+      <c r="AP14">
+        <v>2573</v>
+      </c>
+      <c r="AQ14">
+        <v>2625</v>
+      </c>
+      <c r="AR14">
+        <v>2656</v>
+      </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:47">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -2330,8 +2501,20 @@
       <c r="AN15">
         <v>914</v>
       </c>
+      <c r="AO15">
+        <v>900</v>
+      </c>
+      <c r="AP15">
+        <v>870</v>
+      </c>
+      <c r="AQ15">
+        <v>865</v>
+      </c>
+      <c r="AR15">
+        <v>872</v>
+      </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:47">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -2452,8 +2635,20 @@
       <c r="AN16">
         <v>2050</v>
       </c>
+      <c r="AO16">
+        <v>2071</v>
+      </c>
+      <c r="AP16">
+        <v>2081</v>
+      </c>
+      <c r="AQ16">
+        <v>2108</v>
+      </c>
+      <c r="AR16">
+        <v>2139</v>
+      </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:46">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -2574,8 +2769,20 @@
       <c r="AN17">
         <v>6257</v>
       </c>
+      <c r="AO17">
+        <v>6352</v>
+      </c>
+      <c r="AP17">
+        <v>6417</v>
+      </c>
+      <c r="AQ17">
+        <v>6613</v>
+      </c>
+      <c r="AR17">
+        <v>6583</v>
+      </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:46">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2696,8 +2903,20 @@
       <c r="AN18">
         <v>3617</v>
       </c>
+      <c r="AO18">
+        <v>3646</v>
+      </c>
+      <c r="AP18">
+        <v>3680</v>
+      </c>
+      <c r="AQ18">
+        <v>3680</v>
+      </c>
+      <c r="AR18">
+        <v>3572</v>
+      </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:46">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -2818,8 +3037,20 @@
       <c r="AN19">
         <v>625</v>
       </c>
+      <c r="AO19">
+        <v>622</v>
+      </c>
+      <c r="AP19">
+        <v>582</v>
+      </c>
+      <c r="AQ19">
+        <v>536</v>
+      </c>
+      <c r="AR19">
+        <v>494</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:46">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -2940,8 +3171,20 @@
       <c r="AN20">
         <v>582</v>
       </c>
+      <c r="AO20">
+        <v>559</v>
+      </c>
+      <c r="AP20">
+        <v>548</v>
+      </c>
+      <c r="AQ20">
+        <v>518</v>
+      </c>
+      <c r="AR20">
+        <v>491</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:46">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3062,8 +3305,20 @@
       <c r="AN21">
         <v>10766</v>
       </c>
+      <c r="AO21">
+        <v>10736</v>
+      </c>
+      <c r="AP21">
+        <v>10789</v>
+      </c>
+      <c r="AQ21">
+        <v>10800</v>
+      </c>
+      <c r="AR21">
+        <v>10618</v>
+      </c>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:46">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -3223,6 +3478,24 @@
         <f>SUM(AN2:AN21)</f>
         <v>103616</v>
       </c>
+      <c r="AO22" s="3">
+        <f t="shared" ref="AO22:AR22" si="4">SUM(AO2:AO21)</f>
+        <v>104291</v>
+      </c>
+      <c r="AP22" s="3">
+        <f t="shared" si="4"/>
+        <v>105418</v>
+      </c>
+      <c r="AQ22" s="3">
+        <f t="shared" si="4"/>
+        <v>106346</v>
+      </c>
+      <c r="AR22" s="3">
+        <f t="shared" si="4"/>
+        <v>106962</v>
+      </c>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3231,20 +3504,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370018BD-AF2C-484B-9235-3FE7A6C4791B}">
-  <dimension ref="A1:AN4"/>
+  <dimension ref="A1:AT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AN4" sqref="AN4"/>
+      <selection activeCell="AS1" sqref="AS1:AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="37" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="38" max="40" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="46" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:46">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3404,8 +3677,26 @@
         <f>activeCases!AN1</f>
         <v>43934</v>
       </c>
+      <c r="AO1" s="6">
+        <f>activeCases!AO1</f>
+        <v>43935</v>
+      </c>
+      <c r="AP1" s="6">
+        <f>activeCases!AP1</f>
+        <v>43936</v>
+      </c>
+      <c r="AQ1" s="6">
+        <f>activeCases!AQ1</f>
+        <v>43937</v>
+      </c>
+      <c r="AR1" s="6">
+        <f>activeCases!AR1</f>
+        <v>43938</v>
+      </c>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:46">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3526,8 +3817,20 @@
       <c r="AN2">
         <v>35425</v>
       </c>
+      <c r="AO2">
+        <v>37130</v>
+      </c>
+      <c r="AP2">
+        <v>38092</v>
+      </c>
+      <c r="AQ2">
+        <v>40164</v>
+      </c>
+      <c r="AR2">
+        <v>42727</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:46">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -3648,8 +3951,20 @@
       <c r="AN3">
         <v>20465</v>
       </c>
+      <c r="AO3">
+        <v>21067</v>
+      </c>
+      <c r="AP3">
+        <v>21645</v>
+      </c>
+      <c r="AQ3">
+        <v>22170</v>
+      </c>
+      <c r="AR3">
+        <v>22745</v>
+      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:46">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -3809,6 +4124,24 @@
         <f>SUM(activeCases!AN22,AN2:AN3)</f>
         <v>159506</v>
       </c>
+      <c r="AO4" s="2">
+        <f>SUM(activeCases!AO22,AO2:AO3)</f>
+        <v>162488</v>
+      </c>
+      <c r="AP4" s="2">
+        <f>SUM(activeCases!AP22,AP2:AP3)</f>
+        <v>165155</v>
+      </c>
+      <c r="AQ4" s="2">
+        <f>SUM(activeCases!AQ22,AQ2:AQ3)</f>
+        <v>168680</v>
+      </c>
+      <c r="AR4" s="2">
+        <f>SUM(activeCases!AR22,AR2:AR3)</f>
+        <v>172434</v>
+      </c>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22819"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C463B6A4-716C-471D-9A9F-8F47558A8707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E2AA08-FDEB-4995-A9AA-E3F9C205D02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activeCases" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -166,6 +166,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -480,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU22"/>
+  <dimension ref="A1:AV22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1:AT22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -497,11 +498,11 @@
     <col min="22" max="22" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="23" max="26" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="28" max="40" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="41" max="47" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="45" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="46" max="48" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:48">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -634,11 +635,18 @@
       <c r="AR1" s="5">
         <v>43938</v>
       </c>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
+      <c r="AS1" s="5">
+        <v>43939</v>
+      </c>
+      <c r="AT1" s="5">
+        <v>43940</v>
+      </c>
+      <c r="AU1" s="5">
+        <v>43941</v>
+      </c>
+      <c r="AV1" s="5"/>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:48">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -771,8 +779,17 @@
       <c r="AR2">
         <v>1942</v>
       </c>
+      <c r="AS2">
+        <v>1971</v>
+      </c>
+      <c r="AT2">
+        <v>1987</v>
+      </c>
+      <c r="AU2">
+        <v>2062</v>
+      </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:48">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -905,8 +922,17 @@
       <c r="AR3">
         <v>266</v>
       </c>
+      <c r="AS3">
+        <v>262</v>
+      </c>
+      <c r="AT3">
+        <v>247</v>
+      </c>
+      <c r="AU3">
+        <v>242</v>
+      </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:48">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1039,8 +1065,17 @@
       <c r="AR4">
         <v>819</v>
       </c>
+      <c r="AS4">
+        <v>832</v>
+      </c>
+      <c r="AT4">
+        <v>844</v>
+      </c>
+      <c r="AU4">
+        <v>828</v>
+      </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:48">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1173,8 +1208,17 @@
       <c r="AR5">
         <v>3027</v>
       </c>
+      <c r="AS5">
+        <v>3045</v>
+      </c>
+      <c r="AT5">
+        <v>3022</v>
+      </c>
+      <c r="AU5">
+        <v>3019</v>
+      </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:48">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1307,8 +1351,17 @@
       <c r="AR6">
         <v>13585</v>
       </c>
+      <c r="AS6" s="8">
+        <v>13584</v>
+      </c>
+      <c r="AT6">
+        <v>13552</v>
+      </c>
+      <c r="AU6">
+        <v>13522</v>
+      </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:48">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1441,8 +1494,17 @@
       <c r="AR7">
         <v>1428</v>
       </c>
+      <c r="AS7">
+        <v>1403</v>
+      </c>
+      <c r="AT7">
+        <v>1337</v>
+      </c>
+      <c r="AU7">
+        <v>1190</v>
+      </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:48">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1575,8 +1637,17 @@
       <c r="AR8">
         <v>4214</v>
       </c>
+      <c r="AS8">
+        <v>4282</v>
+      </c>
+      <c r="AT8">
+        <v>4321</v>
+      </c>
+      <c r="AU8">
+        <v>4365</v>
+      </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:48">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1709,8 +1780,17 @@
       <c r="AR9">
         <v>3459</v>
       </c>
+      <c r="AS9">
+        <v>3412</v>
+      </c>
+      <c r="AT9">
+        <v>3490</v>
+      </c>
+      <c r="AU9">
+        <v>3496</v>
+      </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:48">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1843,8 +1923,17 @@
       <c r="AR10">
         <v>33434</v>
       </c>
+      <c r="AS10" s="8">
+        <v>34195</v>
+      </c>
+      <c r="AT10">
+        <v>34497</v>
+      </c>
+      <c r="AU10">
+        <v>34587</v>
+      </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:48">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1977,8 +2066,17 @@
       <c r="AR11">
         <v>3157</v>
       </c>
+      <c r="AS11">
+        <v>3172</v>
+      </c>
+      <c r="AT11">
+        <v>3182</v>
+      </c>
+      <c r="AU11">
+        <v>3212</v>
+      </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:48">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -2111,8 +2209,17 @@
       <c r="AR12">
         <v>208</v>
       </c>
+      <c r="AS12">
+        <v>209</v>
+      </c>
+      <c r="AT12">
+        <v>215</v>
+      </c>
+      <c r="AU12">
+        <v>213</v>
+      </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:48">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -2245,8 +2352,17 @@
       <c r="AR13">
         <v>13998</v>
       </c>
+      <c r="AS13">
+        <v>14223</v>
+      </c>
+      <c r="AT13">
+        <v>14470</v>
+      </c>
+      <c r="AU13">
+        <v>14557</v>
+      </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:48">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -2379,8 +2495,17 @@
       <c r="AR14">
         <v>2656</v>
       </c>
+      <c r="AS14">
+        <v>2694</v>
+      </c>
+      <c r="AT14">
+        <v>2786</v>
+      </c>
+      <c r="AU14">
+        <v>2810</v>
+      </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:48">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -2513,8 +2638,17 @@
       <c r="AR15">
         <v>872</v>
       </c>
+      <c r="AS15">
+        <v>881</v>
+      </c>
+      <c r="AT15">
+        <v>864</v>
+      </c>
+      <c r="AU15">
+        <v>854</v>
+      </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:48">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -2647,8 +2781,17 @@
       <c r="AR16">
         <v>2139</v>
       </c>
+      <c r="AS16">
+        <v>2171</v>
+      </c>
+      <c r="AT16">
+        <v>2202</v>
+      </c>
+      <c r="AU16">
+        <v>2210</v>
+      </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:48">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -2781,8 +2924,17 @@
       <c r="AR17">
         <v>6583</v>
       </c>
+      <c r="AS17">
+        <v>6470</v>
+      </c>
+      <c r="AT17">
+        <v>6496</v>
+      </c>
+      <c r="AU17">
+        <v>6568</v>
+      </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:48">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2915,8 +3067,19 @@
       <c r="AR18">
         <v>3572</v>
       </c>
+      <c r="AS18">
+        <f>1556+1971</f>
+        <v>3527</v>
+      </c>
+      <c r="AT18">
+        <f>1566+1971</f>
+        <v>3537</v>
+      </c>
+      <c r="AU18">
+        <v>3469</v>
+      </c>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:48">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -3049,8 +3212,17 @@
       <c r="AR19">
         <v>494</v>
       </c>
+      <c r="AS19">
+        <v>431</v>
+      </c>
+      <c r="AT19">
+        <v>436</v>
+      </c>
+      <c r="AU19">
+        <v>424</v>
+      </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:48">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -3183,8 +3355,17 @@
       <c r="AR20">
         <v>491</v>
       </c>
+      <c r="AS20">
+        <v>549</v>
+      </c>
+      <c r="AT20">
+        <v>562</v>
+      </c>
+      <c r="AU20">
+        <v>548</v>
+      </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:48">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3317,8 +3498,17 @@
       <c r="AR21">
         <v>10618</v>
       </c>
+      <c r="AS21">
+        <v>10444</v>
+      </c>
+      <c r="AT21">
+        <v>10210</v>
+      </c>
+      <c r="AU21">
+        <v>10061</v>
+      </c>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:48">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -3479,7 +3669,7 @@
         <v>103616</v>
       </c>
       <c r="AO22" s="3">
-        <f t="shared" ref="AO22:AR22" si="4">SUM(AO2:AO21)</f>
+        <f t="shared" ref="AO22:AV22" si="4">SUM(AO2:AO21)</f>
         <v>104291</v>
       </c>
       <c r="AP22" s="3">
@@ -3494,8 +3684,19 @@
         <f t="shared" si="4"/>
         <v>106962</v>
       </c>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
+      <c r="AS22" s="3">
+        <f t="shared" si="4"/>
+        <v>107757</v>
+      </c>
+      <c r="AT22" s="3">
+        <f t="shared" si="4"/>
+        <v>108257</v>
+      </c>
+      <c r="AU22" s="3">
+        <f t="shared" si="4"/>
+        <v>108237</v>
+      </c>
+      <c r="AV22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3504,20 +3705,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370018BD-AF2C-484B-9235-3FE7A6C4791B}">
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:AW4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1:AT4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="37" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="38" max="46" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="43" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="44" max="48" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:49">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3693,10 +3894,21 @@
         <f>activeCases!AR1</f>
         <v>43938</v>
       </c>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
+      <c r="AS1" s="6">
+        <f>activeCases!AS1</f>
+        <v>43939</v>
+      </c>
+      <c r="AT1" s="6">
+        <f>activeCases!AT1</f>
+        <v>43940</v>
+      </c>
+      <c r="AU1" s="6">
+        <f>activeCases!AU1</f>
+        <v>43941</v>
+      </c>
+      <c r="AV1" s="6"/>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3829,8 +4041,17 @@
       <c r="AR2">
         <v>42727</v>
       </c>
+      <c r="AS2">
+        <v>44927</v>
+      </c>
+      <c r="AT2">
+        <v>47055</v>
+      </c>
+      <c r="AU2">
+        <v>48877</v>
+      </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -3963,8 +4184,17 @@
       <c r="AR3">
         <v>22745</v>
       </c>
+      <c r="AS3">
+        <v>23227</v>
+      </c>
+      <c r="AT3">
+        <v>23660</v>
+      </c>
+      <c r="AU3">
+        <v>24114</v>
+      </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -4140,8 +4370,20 @@
         <f>SUM(activeCases!AR22,AR2:AR3)</f>
         <v>172434</v>
       </c>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
+      <c r="AS4" s="2">
+        <f>SUM(activeCases!AS22,AS2:AS3)</f>
+        <v>175911</v>
+      </c>
+      <c r="AT4" s="2">
+        <f>SUM(activeCases!AT22,AT2:AT3)</f>
+        <v>178972</v>
+      </c>
+      <c r="AU4" s="2">
+        <f>SUM(activeCases!AU22,AU2:AU3)</f>
+        <v>181228</v>
+      </c>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22819"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22821"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E2AA08-FDEB-4995-A9AA-E3F9C205D02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22BD08E4-DA8F-4099-80CA-A71C8106A8BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activeCases" sheetId="1" r:id="rId1"/>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV22"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AZ13" sqref="AZ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -499,10 +499,10 @@
     <col min="23" max="26" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="28" max="45" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="46" max="48" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="52" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:52">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -644,9 +644,23 @@
       <c r="AU1" s="5">
         <v>43941</v>
       </c>
-      <c r="AV1" s="5"/>
+      <c r="AV1" s="5">
+        <v>43942</v>
+      </c>
+      <c r="AW1" s="5">
+        <v>43943</v>
+      </c>
+      <c r="AX1" s="5">
+        <v>43944</v>
+      </c>
+      <c r="AY1" s="5">
+        <v>43945</v>
+      </c>
+      <c r="AZ1" s="5">
+        <v>43946</v>
+      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:52">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -788,8 +802,23 @@
       <c r="AU2">
         <v>2062</v>
       </c>
+      <c r="AV2" s="8">
+        <v>2067</v>
+      </c>
+      <c r="AW2" s="8">
+        <v>2108</v>
+      </c>
+      <c r="AX2" s="8">
+        <v>2100</v>
+      </c>
+      <c r="AY2" s="8">
+        <v>2079</v>
+      </c>
+      <c r="AZ2" s="8">
+        <v>2061</v>
+      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:52">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -931,8 +960,23 @@
       <c r="AU3">
         <v>242</v>
       </c>
+      <c r="AV3">
+        <v>245</v>
+      </c>
+      <c r="AW3">
+        <v>232</v>
+      </c>
+      <c r="AX3">
+        <v>229</v>
+      </c>
+      <c r="AY3">
+        <v>229</v>
+      </c>
+      <c r="AZ3">
+        <v>218</v>
+      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:52">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1074,8 +1118,23 @@
       <c r="AU4">
         <v>828</v>
       </c>
+      <c r="AV4">
+        <v>819</v>
+      </c>
+      <c r="AW4">
+        <v>821</v>
+      </c>
+      <c r="AX4">
+        <v>823</v>
+      </c>
+      <c r="AY4">
+        <v>821</v>
+      </c>
+      <c r="AZ4">
+        <v>811</v>
+      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:52">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1217,8 +1276,23 @@
       <c r="AU5">
         <v>3019</v>
       </c>
+      <c r="AV5" s="8">
+        <v>2946</v>
+      </c>
+      <c r="AW5" s="8">
+        <v>2998</v>
+      </c>
+      <c r="AX5" s="8">
+        <v>2978</v>
+      </c>
+      <c r="AY5" s="8">
+        <v>2943</v>
+      </c>
+      <c r="AZ5" s="8">
+        <v>2935</v>
+      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:52">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1360,8 +1434,23 @@
       <c r="AU6">
         <v>13522</v>
       </c>
+      <c r="AV6" s="8">
+        <v>13244</v>
+      </c>
+      <c r="AW6" s="8">
+        <v>13084</v>
+      </c>
+      <c r="AX6" s="8">
+        <v>12845</v>
+      </c>
+      <c r="AY6" s="8">
+        <v>12509</v>
+      </c>
+      <c r="AZ6" s="8">
+        <v>12347</v>
+      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:52">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1503,8 +1592,23 @@
       <c r="AU7">
         <v>1190</v>
       </c>
+      <c r="AV7" s="8">
+        <v>1322</v>
+      </c>
+      <c r="AW7" s="8">
+        <v>1308</v>
+      </c>
+      <c r="AX7" s="8">
+        <v>1135</v>
+      </c>
+      <c r="AY7" s="8">
+        <v>1320</v>
+      </c>
+      <c r="AZ7" s="8">
+        <v>1084</v>
+      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:52">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1646,8 +1750,23 @@
       <c r="AU8">
         <v>4365</v>
       </c>
+      <c r="AV8" s="8">
+        <v>4402</v>
+      </c>
+      <c r="AW8" s="8">
+        <v>4463</v>
+      </c>
+      <c r="AX8" s="8">
+        <v>4486</v>
+      </c>
+      <c r="AY8" s="8">
+        <v>4492</v>
+      </c>
+      <c r="AZ8" s="8">
+        <v>4561</v>
+      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:52">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1789,8 +1908,23 @@
       <c r="AU9">
         <v>3496</v>
       </c>
+      <c r="AV9" s="8">
+        <v>3463</v>
+      </c>
+      <c r="AW9" s="8">
+        <v>3476</v>
+      </c>
+      <c r="AX9" s="8">
+        <v>3466</v>
+      </c>
+      <c r="AY9" s="8">
+        <v>3437</v>
+      </c>
+      <c r="AZ9" s="8">
+        <v>3433</v>
+      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:52">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1932,8 +2066,23 @@
       <c r="AU10">
         <v>34587</v>
       </c>
+      <c r="AV10" s="8">
+        <v>33978</v>
+      </c>
+      <c r="AW10" s="8">
+        <v>34242</v>
+      </c>
+      <c r="AX10" s="8">
+        <v>33873</v>
+      </c>
+      <c r="AY10" s="8">
+        <v>34368</v>
+      </c>
+      <c r="AZ10" s="8">
+        <v>34473</v>
+      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:52">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -2075,8 +2224,23 @@
       <c r="AU11">
         <v>3212</v>
       </c>
+      <c r="AV11" s="8">
+        <v>3218</v>
+      </c>
+      <c r="AW11" s="8">
+        <v>3230</v>
+      </c>
+      <c r="AX11" s="8">
+        <v>3230</v>
+      </c>
+      <c r="AY11" s="8">
+        <v>3273</v>
+      </c>
+      <c r="AZ11" s="8">
+        <v>3272</v>
+      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:52">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -2218,8 +2382,23 @@
       <c r="AU12">
         <v>213</v>
       </c>
+      <c r="AV12">
+        <v>213</v>
+      </c>
+      <c r="AW12">
+        <v>205</v>
+      </c>
+      <c r="AX12">
+        <v>198</v>
+      </c>
+      <c r="AY12">
+        <v>200</v>
+      </c>
+      <c r="AZ12">
+        <v>198</v>
+      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:52">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -2361,8 +2540,23 @@
       <c r="AU13">
         <v>14557</v>
       </c>
+      <c r="AV13" s="8">
+        <v>14811</v>
+      </c>
+      <c r="AW13" s="8">
+        <v>15122</v>
+      </c>
+      <c r="AX13" s="8">
+        <v>15152</v>
+      </c>
+      <c r="AY13" s="8">
+        <v>15391</v>
+      </c>
+      <c r="AZ13" s="8">
+        <v>15502</v>
+      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:52">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -2504,8 +2698,23 @@
       <c r="AU14">
         <v>2810</v>
       </c>
+      <c r="AV14" s="8">
+        <v>2812</v>
+      </c>
+      <c r="AW14" s="8">
+        <v>2874</v>
+      </c>
+      <c r="AX14" s="8">
+        <v>2936</v>
+      </c>
+      <c r="AY14" s="8">
+        <v>2933</v>
+      </c>
+      <c r="AZ14" s="8">
+        <v>2919</v>
+      </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:52">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -2647,8 +2856,23 @@
       <c r="AU15">
         <v>854</v>
       </c>
+      <c r="AV15">
+        <v>837</v>
+      </c>
+      <c r="AW15">
+        <v>833</v>
+      </c>
+      <c r="AX15">
+        <v>817</v>
+      </c>
+      <c r="AY15">
+        <v>804</v>
+      </c>
+      <c r="AZ15">
+        <v>794</v>
+      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:52">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -2790,8 +3014,23 @@
       <c r="AU16">
         <v>2210</v>
       </c>
+      <c r="AV16" s="8">
+        <v>2259</v>
+      </c>
+      <c r="AW16" s="8">
+        <v>2287</v>
+      </c>
+      <c r="AX16" s="8">
+        <v>2301</v>
+      </c>
+      <c r="AY16" s="8">
+        <v>2320</v>
+      </c>
+      <c r="AZ16" s="8">
+        <v>2272</v>
+      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:52">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -2933,8 +3172,23 @@
       <c r="AU17">
         <v>6568</v>
       </c>
+      <c r="AV17" s="8">
+        <v>6622</v>
+      </c>
+      <c r="AW17" s="8">
+        <v>6167</v>
+      </c>
+      <c r="AX17" s="8">
+        <v>6171</v>
+      </c>
+      <c r="AY17" s="8">
+        <v>6133</v>
+      </c>
+      <c r="AZ17" s="8">
+        <v>6146</v>
+      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:52">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -3078,8 +3332,28 @@
       <c r="AU18">
         <v>3469</v>
       </c>
+      <c r="AV18">
+        <f>1909+1536</f>
+        <v>3445</v>
+      </c>
+      <c r="AW18">
+        <f>1512+1874</f>
+        <v>3386</v>
+      </c>
+      <c r="AX18">
+        <f>1871+1494</f>
+        <v>3365</v>
+      </c>
+      <c r="AY18">
+        <f>1827+1093</f>
+        <v>2920</v>
+      </c>
+      <c r="AZ18">
+        <f>1744+1035</f>
+        <v>2779</v>
+      </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:52">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -3221,8 +3495,23 @@
       <c r="AU19">
         <v>424</v>
       </c>
+      <c r="AV19">
+        <v>407</v>
+      </c>
+      <c r="AW19">
+        <v>371</v>
+      </c>
+      <c r="AX19">
+        <v>355</v>
+      </c>
+      <c r="AY19">
+        <v>322</v>
+      </c>
+      <c r="AZ19">
+        <v>297</v>
+      </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:52">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -3364,8 +3653,23 @@
       <c r="AU20">
         <v>548</v>
       </c>
+      <c r="AV20">
+        <v>522</v>
+      </c>
+      <c r="AW20">
+        <v>501</v>
+      </c>
+      <c r="AX20">
+        <v>463</v>
+      </c>
+      <c r="AY20">
+        <v>354</v>
+      </c>
+      <c r="AZ20">
+        <v>313</v>
+      </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:52">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3507,8 +3811,23 @@
       <c r="AU21">
         <v>10061</v>
       </c>
+      <c r="AV21" s="8">
+        <v>10077</v>
+      </c>
+      <c r="AW21" s="8">
+        <v>9991</v>
+      </c>
+      <c r="AX21" s="8">
+        <v>9925</v>
+      </c>
+      <c r="AY21" s="8">
+        <v>9679</v>
+      </c>
+      <c r="AZ21" s="8">
+        <v>9432</v>
+      </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:52">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -3669,7 +3988,7 @@
         <v>103616</v>
       </c>
       <c r="AO22" s="3">
-        <f t="shared" ref="AO22:AV22" si="4">SUM(AO2:AO21)</f>
+        <f t="shared" ref="AO22:AZ22" si="4">SUM(AO2:AO21)</f>
         <v>104291</v>
       </c>
       <c r="AP22" s="3">
@@ -3696,7 +4015,26 @@
         <f t="shared" si="4"/>
         <v>108237</v>
       </c>
-      <c r="AV22" s="3"/>
+      <c r="AV22" s="3">
+        <f t="shared" si="4"/>
+        <v>107709</v>
+      </c>
+      <c r="AW22" s="3">
+        <f t="shared" si="4"/>
+        <v>107699</v>
+      </c>
+      <c r="AX22" s="3">
+        <f t="shared" si="4"/>
+        <v>106848</v>
+      </c>
+      <c r="AY22" s="3">
+        <f t="shared" si="4"/>
+        <v>106527</v>
+      </c>
+      <c r="AZ22" s="3">
+        <f t="shared" si="4"/>
+        <v>105847</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3705,20 +4043,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370018BD-AF2C-484B-9235-3FE7A6C4791B}">
-  <dimension ref="A1:AW4"/>
+  <dimension ref="A1:AZ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="43" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="44" max="48" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="52" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:52">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3906,9 +4244,28 @@
         <f>activeCases!AU1</f>
         <v>43941</v>
       </c>
-      <c r="AV1" s="6"/>
+      <c r="AV1" s="6">
+        <f>activeCases!AV1</f>
+        <v>43942</v>
+      </c>
+      <c r="AW1" s="6">
+        <f>activeCases!AW1</f>
+        <v>43943</v>
+      </c>
+      <c r="AX1" s="6">
+        <f>activeCases!AX1</f>
+        <v>43944</v>
+      </c>
+      <c r="AY1" s="6">
+        <f>activeCases!AY1</f>
+        <v>43945</v>
+      </c>
+      <c r="AZ1" s="6">
+        <f>activeCases!AZ1</f>
+        <v>43946</v>
+      </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:52">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4050,8 +4407,23 @@
       <c r="AU2">
         <v>48877</v>
       </c>
+      <c r="AV2" s="8">
+        <v>51600</v>
+      </c>
+      <c r="AW2" s="8">
+        <v>54543</v>
+      </c>
+      <c r="AX2" s="8">
+        <v>57576</v>
+      </c>
+      <c r="AY2" s="8">
+        <v>60498</v>
+      </c>
+      <c r="AZ2" s="8">
+        <v>63120</v>
+      </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:52">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4193,8 +4565,23 @@
       <c r="AU3">
         <v>24114</v>
       </c>
+      <c r="AV3" s="8">
+        <v>24648</v>
+      </c>
+      <c r="AW3" s="8">
+        <v>25085</v>
+      </c>
+      <c r="AX3" s="8">
+        <v>25549</v>
+      </c>
+      <c r="AY3" s="8">
+        <v>25969</v>
+      </c>
+      <c r="AZ3" s="8">
+        <v>26384</v>
+      </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:52">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -4382,8 +4769,26 @@
         <f>SUM(activeCases!AU22,AU2:AU3)</f>
         <v>181228</v>
       </c>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
+      <c r="AV4" s="2">
+        <f>SUM(activeCases!AV22,AV2:AV3)</f>
+        <v>183957</v>
+      </c>
+      <c r="AW4" s="2">
+        <f>SUM(activeCases!AW22,AW2:AW3)</f>
+        <v>187327</v>
+      </c>
+      <c r="AX4" s="2">
+        <f>SUM(activeCases!AX22,AX2:AX3)</f>
+        <v>189973</v>
+      </c>
+      <c r="AY4" s="2">
+        <f>SUM(activeCases!AY22,AY2:AY3)</f>
+        <v>192994</v>
+      </c>
+      <c r="AZ4" s="2">
+        <f>SUM(activeCases!AZ22,AZ2:AZ3)</f>
+        <v>195351</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22821"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22BD08E4-DA8F-4099-80CA-A71C8106A8BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20C0968D-7F92-4A14-AA56-C3877506F4AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activeCases" sheetId="1" r:id="rId1"/>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ22"/>
+  <dimension ref="A1:BC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ13" sqref="AZ13"/>
+      <selection activeCell="BC12" sqref="BC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -498,11 +498,11 @@
     <col min="22" max="22" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="23" max="26" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="28" max="45" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="46" max="52" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="52" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="53" max="55" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:55">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -659,8 +659,17 @@
       <c r="AZ1" s="5">
         <v>43946</v>
       </c>
+      <c r="BA1" s="5">
+        <v>43947</v>
+      </c>
+      <c r="BB1" s="5">
+        <v>43948</v>
+      </c>
+      <c r="BC1" s="5">
+        <v>43949</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:55">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -817,8 +826,17 @@
       <c r="AZ2" s="8">
         <v>2061</v>
       </c>
+      <c r="BA2" s="8">
+        <v>2068</v>
+      </c>
+      <c r="BB2" s="8">
+        <v>2030</v>
+      </c>
+      <c r="BC2" s="8">
+        <v>1990</v>
+      </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:55">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -975,8 +993,17 @@
       <c r="AZ3">
         <v>218</v>
       </c>
+      <c r="BA3">
+        <v>219</v>
+      </c>
+      <c r="BB3">
+        <v>217</v>
+      </c>
+      <c r="BC3">
+        <v>205</v>
+      </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:55">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1133,8 +1160,17 @@
       <c r="AZ4">
         <v>811</v>
       </c>
+      <c r="BA4">
+        <v>797</v>
+      </c>
+      <c r="BB4">
+        <v>782</v>
+      </c>
+      <c r="BC4">
+        <v>764</v>
+      </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:55">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1291,8 +1327,17 @@
       <c r="AZ5" s="8">
         <v>2935</v>
       </c>
+      <c r="BA5" s="8">
+        <v>2924</v>
+      </c>
+      <c r="BB5" s="8">
+        <v>2877</v>
+      </c>
+      <c r="BC5" s="8">
+        <v>2802</v>
+      </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:55">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1449,8 +1494,17 @@
       <c r="AZ6" s="8">
         <v>12347</v>
       </c>
+      <c r="BA6" s="8">
+        <v>12341</v>
+      </c>
+      <c r="BB6" s="8">
+        <v>12225</v>
+      </c>
+      <c r="BC6" s="8">
+        <v>12003</v>
+      </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:55">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1607,8 +1661,17 @@
       <c r="AZ7" s="8">
         <v>1084</v>
       </c>
+      <c r="BA7" s="8">
+        <v>1248</v>
+      </c>
+      <c r="BB7" s="8">
+        <v>1258</v>
+      </c>
+      <c r="BC7" s="8">
+        <v>1239</v>
+      </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:55">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1765,8 +1828,17 @@
       <c r="AZ8" s="8">
         <v>4561</v>
       </c>
+      <c r="BA8" s="8">
+        <v>4573</v>
+      </c>
+      <c r="BB8" s="8">
+        <v>4562</v>
+      </c>
+      <c r="BC8" s="8">
+        <v>4562</v>
+      </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:55">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1923,8 +1995,17 @@
       <c r="AZ9" s="8">
         <v>3433</v>
       </c>
+      <c r="BA9" s="8">
+        <v>3480</v>
+      </c>
+      <c r="BB9" s="8">
+        <v>3580</v>
+      </c>
+      <c r="BC9" s="8">
+        <v>3571</v>
+      </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:55">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2081,8 +2162,17 @@
       <c r="AZ10" s="8">
         <v>34473</v>
       </c>
+      <c r="BA10" s="8">
+        <v>35166</v>
+      </c>
+      <c r="BB10" s="8">
+        <v>35441</v>
+      </c>
+      <c r="BC10" s="8">
+        <v>35744</v>
+      </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:55">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -2239,8 +2329,17 @@
       <c r="AZ11" s="8">
         <v>3272</v>
       </c>
+      <c r="BA11" s="8">
+        <v>3308</v>
+      </c>
+      <c r="BB11" s="8">
+        <v>3310</v>
+      </c>
+      <c r="BC11" s="8">
+        <v>3334</v>
+      </c>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:55">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -2397,8 +2496,17 @@
       <c r="AZ12">
         <v>198</v>
       </c>
+      <c r="BA12">
+        <v>200</v>
+      </c>
+      <c r="BB12">
+        <v>200</v>
+      </c>
+      <c r="BC12">
+        <v>195</v>
+      </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:55">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -2555,8 +2663,17 @@
       <c r="AZ13" s="8">
         <v>15502</v>
       </c>
+      <c r="BA13" s="8">
+        <v>15519</v>
+      </c>
+      <c r="BB13" s="8">
+        <v>15508</v>
+      </c>
+      <c r="BC13" s="8">
+        <v>15506</v>
+      </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:55">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -2713,8 +2830,17 @@
       <c r="AZ14" s="8">
         <v>2919</v>
       </c>
+      <c r="BA14" s="8">
+        <v>2937</v>
+      </c>
+      <c r="BB14" s="8">
+        <v>2912</v>
+      </c>
+      <c r="BC14" s="8">
+        <v>2919</v>
+      </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:55">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -2871,8 +2997,17 @@
       <c r="AZ15">
         <v>794</v>
       </c>
+      <c r="BA15">
+        <v>783</v>
+      </c>
+      <c r="BB15">
+        <v>776</v>
+      </c>
+      <c r="BC15">
+        <v>772</v>
+      </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:55">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -3029,8 +3164,17 @@
       <c r="AZ16" s="8">
         <v>2272</v>
       </c>
+      <c r="BA16" s="8">
+        <v>2107</v>
+      </c>
+      <c r="BB16" s="8">
+        <v>2123</v>
+      </c>
+      <c r="BC16" s="8">
+        <v>2143</v>
+      </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:55">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -3187,8 +3331,17 @@
       <c r="AZ17" s="8">
         <v>6146</v>
       </c>
+      <c r="BA17" s="8">
+        <v>6069</v>
+      </c>
+      <c r="BB17" s="8">
+        <v>5983</v>
+      </c>
+      <c r="BC17" s="8">
+        <v>5896</v>
+      </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:55">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -3352,8 +3505,20 @@
         <f>1744+1035</f>
         <v>2779</v>
       </c>
+      <c r="BA18">
+        <f>1682+994</f>
+        <v>2676</v>
+      </c>
+      <c r="BB18">
+        <f>1707+940</f>
+        <v>2647</v>
+      </c>
+      <c r="BC18">
+        <f>1565+910</f>
+        <v>2475</v>
+      </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:55">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -3510,8 +3675,17 @@
       <c r="AZ19">
         <v>297</v>
       </c>
+      <c r="BA19">
+        <v>296</v>
+      </c>
+      <c r="BB19">
+        <v>287</v>
+      </c>
+      <c r="BC19">
+        <v>275</v>
+      </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:55">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -3668,8 +3842,17 @@
       <c r="AZ20">
         <v>313</v>
       </c>
+      <c r="BA20">
+        <v>254</v>
+      </c>
+      <c r="BB20">
+        <v>235</v>
+      </c>
+      <c r="BC20">
+        <v>209</v>
+      </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:55">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3826,8 +4009,17 @@
       <c r="AZ21" s="8">
         <v>9432</v>
       </c>
+      <c r="BA21" s="8">
+        <v>9138</v>
+      </c>
+      <c r="BB21" s="8">
+        <v>8860</v>
+      </c>
+      <c r="BC21" s="8">
+        <v>8601</v>
+      </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:55">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -3988,7 +4180,7 @@
         <v>103616</v>
       </c>
       <c r="AO22" s="3">
-        <f t="shared" ref="AO22:AZ22" si="4">SUM(AO2:AO21)</f>
+        <f t="shared" ref="AO22:BC22" si="4">SUM(AO2:AO21)</f>
         <v>104291</v>
       </c>
       <c r="AP22" s="3">
@@ -4034,6 +4226,18 @@
       <c r="AZ22" s="3">
         <f t="shared" si="4"/>
         <v>105847</v>
+      </c>
+      <c r="BA22" s="3">
+        <f t="shared" si="4"/>
+        <v>106103</v>
+      </c>
+      <c r="BB22" s="3">
+        <f t="shared" si="4"/>
+        <v>105813</v>
+      </c>
+      <c r="BC22" s="3">
+        <f t="shared" si="4"/>
+        <v>105205</v>
       </c>
     </row>
   </sheetData>
@@ -4043,20 +4247,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370018BD-AF2C-484B-9235-3FE7A6C4791B}">
-  <dimension ref="A1:AZ4"/>
+  <dimension ref="A1:BC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1"/>
+      <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="43" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="44" max="52" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="51" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="52" max="55" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:55">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -4264,8 +4468,20 @@
         <f>activeCases!AZ1</f>
         <v>43946</v>
       </c>
+      <c r="BA1" s="6">
+        <f>activeCases!BA1</f>
+        <v>43947</v>
+      </c>
+      <c r="BB1" s="6">
+        <f>activeCases!BB1</f>
+        <v>43948</v>
+      </c>
+      <c r="BC1" s="6">
+        <f>activeCases!BC1</f>
+        <v>43949</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:55">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4422,8 +4638,17 @@
       <c r="AZ2" s="8">
         <v>63120</v>
       </c>
+      <c r="BA2" s="8">
+        <v>64928</v>
+      </c>
+      <c r="BB2" s="8">
+        <v>66624</v>
+      </c>
+      <c r="BC2" s="8">
+        <v>68941</v>
+      </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:55">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4580,8 +4805,17 @@
       <c r="AZ3" s="8">
         <v>26384</v>
       </c>
+      <c r="BA3" s="8">
+        <v>26644</v>
+      </c>
+      <c r="BB3" s="8">
+        <v>26977</v>
+      </c>
+      <c r="BC3" s="8">
+        <v>27359</v>
+      </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:55">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -4788,6 +5022,18 @@
       <c r="AZ4" s="2">
         <f>SUM(activeCases!AZ22,AZ2:AZ3)</f>
         <v>195351</v>
+      </c>
+      <c r="BA4" s="2">
+        <f>SUM(activeCases!BA22,BA2:BA3)</f>
+        <v>197675</v>
+      </c>
+      <c r="BB4" s="2">
+        <f>SUM(activeCases!BB22,BB2:BB3)</f>
+        <v>199414</v>
+      </c>
+      <c r="BC4" s="2">
+        <f>SUM(activeCases!BC22,BC2:BC3)</f>
+        <v>201505</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22823"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20C0968D-7F92-4A14-AA56-C3877506F4AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CE5BD8-5D40-4C0E-B483-02B311D857F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activeCases" sheetId="1" r:id="rId1"/>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC22"/>
+  <dimension ref="A1:BE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BC12" sqref="BC12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BE12" sqref="BE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -498,11 +498,11 @@
     <col min="22" max="22" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="23" max="26" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="28" max="52" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="53" max="55" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="56" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:57">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -668,8 +668,14 @@
       <c r="BC1" s="5">
         <v>43949</v>
       </c>
+      <c r="BD1" s="5">
+        <v>43950</v>
+      </c>
+      <c r="BE1" s="5">
+        <v>43951</v>
+      </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:57">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -835,8 +841,14 @@
       <c r="BC2" s="8">
         <v>1990</v>
       </c>
+      <c r="BD2" s="8">
+        <v>1976</v>
+      </c>
+      <c r="BE2" s="8">
+        <v>1915</v>
+      </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:57">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1002,8 +1014,14 @@
       <c r="BC3">
         <v>205</v>
       </c>
+      <c r="BD3">
+        <v>194</v>
+      </c>
+      <c r="BE3">
+        <v>192</v>
+      </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:57">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1169,8 +1187,14 @@
       <c r="BC4">
         <v>764</v>
       </c>
+      <c r="BD4">
+        <v>753</v>
+      </c>
+      <c r="BE4">
+        <v>740</v>
+      </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:57">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1336,8 +1360,14 @@
       <c r="BC5" s="8">
         <v>2802</v>
       </c>
+      <c r="BD5" s="8">
+        <v>2782</v>
+      </c>
+      <c r="BE5" s="8">
+        <v>2773</v>
+      </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:57">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1503,8 +1533,14 @@
       <c r="BC6" s="8">
         <v>12003</v>
       </c>
+      <c r="BD6" s="8">
+        <v>11862</v>
+      </c>
+      <c r="BE6" s="8">
+        <v>9563</v>
+      </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:57">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1670,8 +1706,14 @@
       <c r="BC7" s="8">
         <v>1239</v>
       </c>
+      <c r="BD7" s="8">
+        <v>1227</v>
+      </c>
+      <c r="BE7" s="8">
+        <v>1170</v>
+      </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:57">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1837,8 +1879,14 @@
       <c r="BC8" s="8">
         <v>4562</v>
       </c>
+      <c r="BD8" s="8">
+        <v>4535</v>
+      </c>
+      <c r="BE8" s="8">
+        <v>4468</v>
+      </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:57">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -2004,8 +2052,14 @@
       <c r="BC9" s="8">
         <v>3571</v>
       </c>
+      <c r="BD9" s="8">
+        <v>3576</v>
+      </c>
+      <c r="BE9" s="8">
+        <v>3551</v>
+      </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:57">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2171,8 +2225,14 @@
       <c r="BC10" s="8">
         <v>35744</v>
       </c>
+      <c r="BD10" s="8">
+        <v>36122</v>
+      </c>
+      <c r="BE10" s="8">
+        <v>36211</v>
+      </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:57">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -2338,8 +2398,14 @@
       <c r="BC11" s="8">
         <v>3334</v>
       </c>
+      <c r="BD11" s="8">
+        <v>3347</v>
+      </c>
+      <c r="BE11" s="8">
+        <v>3210</v>
+      </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:57">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -2505,8 +2571,14 @@
       <c r="BC12">
         <v>195</v>
       </c>
+      <c r="BD12">
+        <v>193</v>
+      </c>
+      <c r="BE12">
+        <v>190</v>
+      </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:57">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -2672,8 +2744,14 @@
       <c r="BC13" s="8">
         <v>15506</v>
       </c>
+      <c r="BD13" s="8">
+        <v>15521</v>
+      </c>
+      <c r="BE13" s="8">
+        <v>15493</v>
+      </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:57">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -2839,8 +2917,14 @@
       <c r="BC14" s="8">
         <v>2919</v>
       </c>
+      <c r="BD14" s="8">
+        <v>2927</v>
+      </c>
+      <c r="BE14" s="8">
+        <v>2949</v>
+      </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:57">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -3006,8 +3090,14 @@
       <c r="BC15">
         <v>772</v>
       </c>
+      <c r="BD15">
+        <v>761</v>
+      </c>
+      <c r="BE15">
+        <v>744</v>
+      </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:57">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -3173,8 +3263,14 @@
       <c r="BC16" s="8">
         <v>2143</v>
       </c>
+      <c r="BD16" s="8">
+        <v>2145</v>
+      </c>
+      <c r="BE16" s="8">
+        <v>2157</v>
+      </c>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="1:57">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -3340,8 +3436,14 @@
       <c r="BC17" s="8">
         <v>5896</v>
       </c>
+      <c r="BD17" s="8">
+        <v>5663</v>
+      </c>
+      <c r="BE17" s="8">
+        <v>5584</v>
+      </c>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18" spans="1:57">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -3517,8 +3619,16 @@
         <f>1565+910</f>
         <v>2475</v>
       </c>
+      <c r="BD18">
+        <f>1463+845</f>
+        <v>2308</v>
+      </c>
+      <c r="BE18">
+        <f>1370+802</f>
+        <v>2172</v>
+      </c>
     </row>
-    <row r="19" spans="1:55">
+    <row r="19" spans="1:57">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -3684,8 +3794,14 @@
       <c r="BC19">
         <v>275</v>
       </c>
+      <c r="BD19">
+        <v>261</v>
+      </c>
+      <c r="BE19">
+        <v>233</v>
+      </c>
     </row>
-    <row r="20" spans="1:55">
+    <row r="20" spans="1:57">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -3851,8 +3967,14 @@
       <c r="BC20">
         <v>209</v>
       </c>
+      <c r="BD20">
+        <v>135</v>
+      </c>
+      <c r="BE20">
+        <v>89</v>
+      </c>
     </row>
-    <row r="21" spans="1:55">
+    <row r="21" spans="1:57">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -4018,8 +4140,14 @@
       <c r="BC21" s="8">
         <v>8601</v>
       </c>
+      <c r="BD21" s="8">
+        <v>8369</v>
+      </c>
+      <c r="BE21" s="8">
+        <v>8147</v>
+      </c>
     </row>
-    <row r="22" spans="1:55">
+    <row r="22" spans="1:57">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -4180,7 +4308,7 @@
         <v>103616</v>
       </c>
       <c r="AO22" s="3">
-        <f t="shared" ref="AO22:BC22" si="4">SUM(AO2:AO21)</f>
+        <f t="shared" ref="AO22:BE22" si="4">SUM(AO2:AO21)</f>
         <v>104291</v>
       </c>
       <c r="AP22" s="3">
@@ -4238,6 +4366,14 @@
       <c r="BC22" s="3">
         <f t="shared" si="4"/>
         <v>105205</v>
+      </c>
+      <c r="BD22" s="3">
+        <f t="shared" si="4"/>
+        <v>104657</v>
+      </c>
+      <c r="BE22" s="3">
+        <f t="shared" si="4"/>
+        <v>101551</v>
       </c>
     </row>
   </sheetData>
@@ -4247,20 +4383,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370018BD-AF2C-484B-9235-3FE7A6C4791B}">
-  <dimension ref="A1:BC4"/>
+  <dimension ref="A1:BE4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BE2" sqref="BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="51" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="52" max="55" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="56" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:57">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -4480,8 +4616,16 @@
         <f>activeCases!BC1</f>
         <v>43949</v>
       </c>
+      <c r="BD1" s="6">
+        <f>activeCases!BD1</f>
+        <v>43950</v>
+      </c>
+      <c r="BE1" s="6">
+        <f>activeCases!BE1</f>
+        <v>43951</v>
+      </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:57">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4647,8 +4791,14 @@
       <c r="BC2" s="8">
         <v>68941</v>
       </c>
+      <c r="BD2" s="8">
+        <v>71252</v>
+      </c>
+      <c r="BE2" s="8">
+        <v>75945</v>
+      </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:57">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4814,8 +4964,14 @@
       <c r="BC3" s="8">
         <v>27359</v>
       </c>
+      <c r="BD3" s="8">
+        <v>27682</v>
+      </c>
+      <c r="BE3" s="8">
+        <v>27967</v>
+      </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:57">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5034,6 +5190,14 @@
       <c r="BC4" s="2">
         <f>SUM(activeCases!BC22,BC2:BC3)</f>
         <v>201505</v>
+      </c>
+      <c r="BD4" s="2">
+        <f>SUM(activeCases!BD22,BD2:BD3)</f>
+        <v>203591</v>
+      </c>
+      <c r="BE4" s="2">
+        <f>SUM(activeCases!BE22,BE2:BE3)</f>
+        <v>205463</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22823"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22913"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CE5BD8-5D40-4C0E-B483-02B311D857F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2fc0\AC\Temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3F05DC5-1A57-4388-B521-9523563C9F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="activeCases" sheetId="1" r:id="rId1"/>
@@ -481,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE22"/>
+  <dimension ref="A1:BU22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BE12" sqref="BE12"/>
+      <selection activeCell="BU3" sqref="BU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -498,11 +503,11 @@
     <col min="22" max="22" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="23" max="26" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="28" max="56" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="71" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="72" max="73" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:73">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -674,8 +679,56 @@
       <c r="BE1" s="5">
         <v>43951</v>
       </c>
+      <c r="BF1" s="5">
+        <v>43952</v>
+      </c>
+      <c r="BG1" s="5">
+        <v>43953</v>
+      </c>
+      <c r="BH1" s="5">
+        <v>43954</v>
+      </c>
+      <c r="BI1" s="5">
+        <v>43955</v>
+      </c>
+      <c r="BJ1" s="5">
+        <v>43956</v>
+      </c>
+      <c r="BK1" s="5">
+        <v>43957</v>
+      </c>
+      <c r="BL1" s="5">
+        <v>43958</v>
+      </c>
+      <c r="BM1" s="5">
+        <v>43959</v>
+      </c>
+      <c r="BN1" s="5">
+        <v>43960</v>
+      </c>
+      <c r="BO1" s="5">
+        <v>43961</v>
+      </c>
+      <c r="BP1" s="5">
+        <v>43962</v>
+      </c>
+      <c r="BQ1" s="5">
+        <v>43963</v>
+      </c>
+      <c r="BR1" s="5">
+        <v>43964</v>
+      </c>
+      <c r="BS1" s="5">
+        <v>43965</v>
+      </c>
+      <c r="BT1" s="5">
+        <v>43966</v>
+      </c>
+      <c r="BU1" s="5">
+        <v>43967</v>
+      </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:73">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -847,8 +900,56 @@
       <c r="BE2" s="8">
         <v>1915</v>
       </c>
+      <c r="BF2" s="8">
+        <v>1911</v>
+      </c>
+      <c r="BG2" s="8">
+        <v>1879</v>
+      </c>
+      <c r="BH2" s="8">
+        <v>1868</v>
+      </c>
+      <c r="BI2" s="8">
+        <v>1837</v>
+      </c>
+      <c r="BJ2" s="8">
+        <v>1809</v>
+      </c>
+      <c r="BK2" s="8">
+        <v>1791</v>
+      </c>
+      <c r="BL2" s="8">
+        <v>1770</v>
+      </c>
+      <c r="BM2" s="8">
+        <v>1713</v>
+      </c>
+      <c r="BN2" s="8">
+        <v>1676</v>
+      </c>
+      <c r="BO2" s="8">
+        <v>1671</v>
+      </c>
+      <c r="BP2" s="8">
+        <v>1609</v>
+      </c>
+      <c r="BQ2" s="8">
+        <v>1548</v>
+      </c>
+      <c r="BR2" s="8">
+        <v>1489</v>
+      </c>
+      <c r="BS2" s="8">
+        <v>1454</v>
+      </c>
+      <c r="BT2" s="8">
+        <v>1423</v>
+      </c>
+      <c r="BU2" s="8">
+        <v>1422</v>
+      </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:73">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1020,8 +1121,56 @@
       <c r="BE3">
         <v>192</v>
       </c>
+      <c r="BF3">
+        <v>193</v>
+      </c>
+      <c r="BG3">
+        <v>191</v>
+      </c>
+      <c r="BH3">
+        <v>194</v>
+      </c>
+      <c r="BI3">
+        <v>173</v>
+      </c>
+      <c r="BJ3">
+        <v>177</v>
+      </c>
+      <c r="BK3">
+        <v>172</v>
+      </c>
+      <c r="BL3">
+        <v>155</v>
+      </c>
+      <c r="BM3">
+        <v>152</v>
+      </c>
+      <c r="BN3">
+        <v>145</v>
+      </c>
+      <c r="BO3">
+        <v>143</v>
+      </c>
+      <c r="BP3">
+        <v>142</v>
+      </c>
+      <c r="BQ3">
+        <v>140</v>
+      </c>
+      <c r="BR3">
+        <v>131</v>
+      </c>
+      <c r="BS3">
+        <v>120</v>
+      </c>
+      <c r="BT3">
+        <v>113</v>
+      </c>
+      <c r="BU3">
+        <v>104</v>
+      </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:73">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1193,8 +1342,56 @@
       <c r="BE4">
         <v>740</v>
       </c>
+      <c r="BF4">
+        <v>727</v>
+      </c>
+      <c r="BG4">
+        <v>713</v>
+      </c>
+      <c r="BH4">
+        <v>702</v>
+      </c>
+      <c r="BI4">
+        <v>674</v>
+      </c>
+      <c r="BJ4">
+        <v>650</v>
+      </c>
+      <c r="BK4">
+        <v>644</v>
+      </c>
+      <c r="BL4">
+        <v>633</v>
+      </c>
+      <c r="BM4">
+        <v>619</v>
+      </c>
+      <c r="BN4">
+        <v>612</v>
+      </c>
+      <c r="BO4">
+        <v>596</v>
+      </c>
+      <c r="BP4">
+        <v>568</v>
+      </c>
+      <c r="BQ4">
+        <v>568</v>
+      </c>
+      <c r="BR4">
+        <v>551</v>
+      </c>
+      <c r="BS4">
+        <v>505</v>
+      </c>
+      <c r="BT4">
+        <v>474</v>
+      </c>
+      <c r="BU4">
+        <v>422</v>
+      </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:73">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1366,8 +1563,56 @@
       <c r="BE5" s="8">
         <v>2773</v>
       </c>
+      <c r="BF5" s="8">
+        <v>2753</v>
+      </c>
+      <c r="BG5" s="8">
+        <v>2721</v>
+      </c>
+      <c r="BH5" s="8">
+        <v>2726</v>
+      </c>
+      <c r="BI5" s="8">
+        <v>2711</v>
+      </c>
+      <c r="BJ5" s="8">
+        <v>2530</v>
+      </c>
+      <c r="BK5" s="8">
+        <v>2340</v>
+      </c>
+      <c r="BL5" s="8">
+        <v>2139</v>
+      </c>
+      <c r="BM5" s="8">
+        <v>2012</v>
+      </c>
+      <c r="BN5" s="8">
+        <v>1965</v>
+      </c>
+      <c r="BO5" s="8">
+        <v>1915</v>
+      </c>
+      <c r="BP5" s="8">
+        <v>1909</v>
+      </c>
+      <c r="BQ5" s="8">
+        <v>1877</v>
+      </c>
+      <c r="BR5" s="8">
+        <v>1815</v>
+      </c>
+      <c r="BS5" s="8">
+        <v>1736</v>
+      </c>
+      <c r="BT5" s="8">
+        <v>1710</v>
+      </c>
+      <c r="BU5" s="8">
+        <v>1696</v>
+      </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:73">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1539,8 +1784,56 @@
       <c r="BE6" s="8">
         <v>9563</v>
       </c>
+      <c r="BF6" s="8">
+        <v>9484</v>
+      </c>
+      <c r="BG6" s="8">
+        <v>9323</v>
+      </c>
+      <c r="BH6" s="8">
+        <v>9045</v>
+      </c>
+      <c r="BI6" s="8">
+        <v>8984</v>
+      </c>
+      <c r="BJ6" s="8">
+        <v>8681</v>
+      </c>
+      <c r="BK6" s="8">
+        <v>8391</v>
+      </c>
+      <c r="BL6" s="8">
+        <v>8011</v>
+      </c>
+      <c r="BM6" s="8">
+        <v>7730</v>
+      </c>
+      <c r="BN6" s="8">
+        <v>7401</v>
+      </c>
+      <c r="BO6" s="8">
+        <v>7191</v>
+      </c>
+      <c r="BP6" s="8">
+        <v>7040</v>
+      </c>
+      <c r="BQ6" s="8">
+        <v>6801</v>
+      </c>
+      <c r="BR6" s="8">
+        <v>6502</v>
+      </c>
+      <c r="BS6" s="8">
+        <v>6001</v>
+      </c>
+      <c r="BT6" s="8">
+        <v>5852</v>
+      </c>
+      <c r="BU6" s="8">
+        <v>5656</v>
+      </c>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:73">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1712,8 +2005,56 @@
       <c r="BE7" s="8">
         <v>1170</v>
       </c>
+      <c r="BF7" s="8">
+        <v>1115</v>
+      </c>
+      <c r="BG7" s="8">
+        <v>1109</v>
+      </c>
+      <c r="BH7" s="8">
+        <v>1087</v>
+      </c>
+      <c r="BI7" s="8">
+        <v>1050</v>
+      </c>
+      <c r="BJ7">
+        <v>984</v>
+      </c>
+      <c r="BK7">
+        <v>962</v>
+      </c>
+      <c r="BL7">
+        <v>927</v>
+      </c>
+      <c r="BM7">
+        <v>911</v>
+      </c>
+      <c r="BN7">
+        <v>869</v>
+      </c>
+      <c r="BO7">
+        <v>851</v>
+      </c>
+      <c r="BP7">
+        <v>830</v>
+      </c>
+      <c r="BQ7">
+        <v>801</v>
+      </c>
+      <c r="BR7">
+        <v>779</v>
+      </c>
+      <c r="BS7">
+        <v>741</v>
+      </c>
+      <c r="BT7">
+        <v>680</v>
+      </c>
+      <c r="BU7">
+        <v>654</v>
+      </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:73">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1885,8 +2226,56 @@
       <c r="BE8" s="8">
         <v>4468</v>
       </c>
+      <c r="BF8" s="8">
+        <v>4446</v>
+      </c>
+      <c r="BG8" s="8">
+        <v>4452</v>
+      </c>
+      <c r="BH8" s="8">
+        <v>4385</v>
+      </c>
+      <c r="BI8" s="8">
+        <v>4385</v>
+      </c>
+      <c r="BJ8" s="8">
+        <v>4370</v>
+      </c>
+      <c r="BK8" s="8">
+        <v>4433</v>
+      </c>
+      <c r="BL8" s="8">
+        <v>4348</v>
+      </c>
+      <c r="BM8" s="8">
+        <v>4328</v>
+      </c>
+      <c r="BN8" s="8">
+        <v>4345</v>
+      </c>
+      <c r="BO8" s="8">
+        <v>4286</v>
+      </c>
+      <c r="BP8" s="8">
+        <v>4294</v>
+      </c>
+      <c r="BQ8" s="8">
+        <v>4273</v>
+      </c>
+      <c r="BR8" s="8">
+        <v>4235</v>
+      </c>
+      <c r="BS8" s="8">
+        <v>4088</v>
+      </c>
+      <c r="BT8" s="8">
+        <v>4022</v>
+      </c>
+      <c r="BU8" s="8">
+        <v>3910</v>
+      </c>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:73">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -2058,8 +2447,56 @@
       <c r="BE9" s="8">
         <v>3551</v>
       </c>
+      <c r="BF9" s="8">
+        <v>3518</v>
+      </c>
+      <c r="BG9" s="8">
+        <v>3598</v>
+      </c>
+      <c r="BH9" s="8">
+        <v>3551</v>
+      </c>
+      <c r="BI9" s="8">
+        <v>3508</v>
+      </c>
+      <c r="BJ9" s="8">
+        <v>3427</v>
+      </c>
+      <c r="BK9" s="8">
+        <v>3306</v>
+      </c>
+      <c r="BL9" s="8">
+        <v>3248</v>
+      </c>
+      <c r="BM9" s="8">
+        <v>3176</v>
+      </c>
+      <c r="BN9" s="8">
+        <v>2982</v>
+      </c>
+      <c r="BO9" s="8">
+        <v>2900</v>
+      </c>
+      <c r="BP9" s="8">
+        <v>2844</v>
+      </c>
+      <c r="BQ9" s="8">
+        <v>2779</v>
+      </c>
+      <c r="BR9" s="8">
+        <v>2718</v>
+      </c>
+      <c r="BS9" s="8">
+        <v>2603</v>
+      </c>
+      <c r="BT9" s="8">
+        <v>2533</v>
+      </c>
+      <c r="BU9" s="8">
+        <v>2456</v>
+      </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:73">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2231,8 +2668,56 @@
       <c r="BE10" s="8">
         <v>36211</v>
       </c>
+      <c r="BF10" s="8">
+        <v>36473</v>
+      </c>
+      <c r="BG10" s="8">
+        <v>36667</v>
+      </c>
+      <c r="BH10" s="8">
+        <v>36926</v>
+      </c>
+      <c r="BI10" s="8">
+        <v>37307</v>
+      </c>
+      <c r="BJ10" s="8">
+        <v>37092</v>
+      </c>
+      <c r="BK10" s="8">
+        <v>31753</v>
+      </c>
+      <c r="BL10" s="8">
+        <v>32015</v>
+      </c>
+      <c r="BM10" s="8">
+        <v>31983</v>
+      </c>
+      <c r="BN10" s="8">
+        <v>30262</v>
+      </c>
+      <c r="BO10" s="8">
+        <v>30190</v>
+      </c>
+      <c r="BP10" s="8">
+        <v>30411</v>
+      </c>
+      <c r="BQ10" s="8">
+        <v>30675</v>
+      </c>
+      <c r="BR10" s="8">
+        <v>30032</v>
+      </c>
+      <c r="BS10" s="8">
+        <v>27746</v>
+      </c>
+      <c r="BT10" s="8">
+        <v>27679</v>
+      </c>
+      <c r="BU10" s="8">
+        <v>27430</v>
+      </c>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:73">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -2404,8 +2889,56 @@
       <c r="BE11" s="8">
         <v>3210</v>
       </c>
+      <c r="BF11" s="8">
+        <v>3211</v>
+      </c>
+      <c r="BG11" s="8">
+        <v>3205</v>
+      </c>
+      <c r="BH11" s="8">
+        <v>3198</v>
+      </c>
+      <c r="BI11" s="8">
+        <v>3206</v>
+      </c>
+      <c r="BJ11" s="8">
+        <v>3219</v>
+      </c>
+      <c r="BK11" s="8">
+        <v>3236</v>
+      </c>
+      <c r="BL11" s="8">
+        <v>3247</v>
+      </c>
+      <c r="BM11" s="8">
+        <v>3238</v>
+      </c>
+      <c r="BN11" s="8">
+        <v>3230</v>
+      </c>
+      <c r="BO11" s="8">
+        <v>3251</v>
+      </c>
+      <c r="BP11" s="8">
+        <v>3227</v>
+      </c>
+      <c r="BQ11" s="8">
+        <v>3208</v>
+      </c>
+      <c r="BR11" s="8">
+        <v>3013</v>
+      </c>
+      <c r="BS11" s="8">
+        <v>2795</v>
+      </c>
+      <c r="BT11" s="8">
+        <v>2657</v>
+      </c>
+      <c r="BU11" s="8">
+        <v>2565</v>
+      </c>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:73">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -2577,8 +3110,56 @@
       <c r="BE12">
         <v>190</v>
       </c>
+      <c r="BF12">
+        <v>190</v>
+      </c>
+      <c r="BG12">
+        <v>182</v>
+      </c>
+      <c r="BH12">
+        <v>181</v>
+      </c>
+      <c r="BI12">
+        <v>178</v>
+      </c>
+      <c r="BJ12">
+        <v>177</v>
+      </c>
+      <c r="BK12">
+        <v>179</v>
+      </c>
+      <c r="BL12">
+        <v>170</v>
+      </c>
+      <c r="BM12">
+        <v>184</v>
+      </c>
+      <c r="BN12">
+        <v>205</v>
+      </c>
+      <c r="BO12">
+        <v>218</v>
+      </c>
+      <c r="BP12">
+        <v>229</v>
+      </c>
+      <c r="BQ12">
+        <v>226</v>
+      </c>
+      <c r="BR12">
+        <v>231</v>
+      </c>
+      <c r="BS12">
+        <v>227</v>
+      </c>
+      <c r="BT12">
+        <v>215</v>
+      </c>
+      <c r="BU12">
+        <v>216</v>
+      </c>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:73">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -2750,8 +3331,56 @@
       <c r="BE13" s="8">
         <v>15493</v>
       </c>
+      <c r="BF13" s="8">
+        <v>15562</v>
+      </c>
+      <c r="BG13" s="8">
+        <v>15719</v>
+      </c>
+      <c r="BH13" s="8">
+        <v>15638</v>
+      </c>
+      <c r="BI13" s="8">
+        <v>15562</v>
+      </c>
+      <c r="BJ13" s="8">
+        <v>15323</v>
+      </c>
+      <c r="BK13" s="8">
+        <v>14858</v>
+      </c>
+      <c r="BL13" s="8">
+        <v>14469</v>
+      </c>
+      <c r="BM13" s="8">
+        <v>14107</v>
+      </c>
+      <c r="BN13" s="8">
+        <v>13934</v>
+      </c>
+      <c r="BO13" s="8">
+        <v>13650</v>
+      </c>
+      <c r="BP13" s="8">
+        <v>13338</v>
+      </c>
+      <c r="BQ13" s="8">
+        <v>13184</v>
+      </c>
+      <c r="BR13" s="8">
+        <v>12491</v>
+      </c>
+      <c r="BS13" s="8">
+        <v>11113</v>
+      </c>
+      <c r="BT13" s="8">
+        <v>10702</v>
+      </c>
+      <c r="BU13" s="8">
+        <v>10239</v>
+      </c>
     </row>
-    <row r="14" spans="1:57">
+    <row r="14" spans="1:73">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -2923,8 +3552,56 @@
       <c r="BE14" s="8">
         <v>2949</v>
       </c>
+      <c r="BF14" s="8">
+        <v>2947</v>
+      </c>
+      <c r="BG14" s="8">
+        <v>2954</v>
+      </c>
+      <c r="BH14" s="8">
+        <v>2955</v>
+      </c>
+      <c r="BI14" s="8">
+        <v>2945</v>
+      </c>
+      <c r="BJ14" s="8">
+        <v>2939</v>
+      </c>
+      <c r="BK14" s="8">
+        <v>2903</v>
+      </c>
+      <c r="BL14" s="8">
+        <v>2800</v>
+      </c>
+      <c r="BM14" s="8">
+        <v>2733</v>
+      </c>
+      <c r="BN14" s="8">
+        <v>2729</v>
+      </c>
+      <c r="BO14" s="8">
+        <v>2669</v>
+      </c>
+      <c r="BP14" s="8">
+        <v>2544</v>
+      </c>
+      <c r="BQ14" s="8">
+        <v>2421</v>
+      </c>
+      <c r="BR14" s="8">
+        <v>2322</v>
+      </c>
+      <c r="BS14" s="8">
+        <v>2181</v>
+      </c>
+      <c r="BT14" s="8">
+        <v>2104</v>
+      </c>
+      <c r="BU14" s="8">
+        <v>2017</v>
+      </c>
     </row>
-    <row r="15" spans="1:57">
+    <row r="15" spans="1:73">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -3096,8 +3773,56 @@
       <c r="BE15">
         <v>744</v>
       </c>
+      <c r="BF15">
+        <v>744</v>
+      </c>
+      <c r="BG15">
+        <v>730</v>
+      </c>
+      <c r="BH15">
+        <v>689</v>
+      </c>
+      <c r="BI15">
+        <v>653</v>
+      </c>
+      <c r="BJ15">
+        <v>642</v>
+      </c>
+      <c r="BK15">
+        <v>623</v>
+      </c>
+      <c r="BL15">
+        <v>583</v>
+      </c>
+      <c r="BM15">
+        <v>553</v>
+      </c>
+      <c r="BN15">
+        <v>550</v>
+      </c>
+      <c r="BO15">
+        <v>515</v>
+      </c>
+      <c r="BP15">
+        <v>511</v>
+      </c>
+      <c r="BQ15">
+        <v>506</v>
+      </c>
+      <c r="BR15">
+        <v>491</v>
+      </c>
+      <c r="BS15">
+        <v>461</v>
+      </c>
+      <c r="BT15">
+        <v>415</v>
+      </c>
+      <c r="BU15">
+        <v>405</v>
+      </c>
     </row>
-    <row r="16" spans="1:57">
+    <row r="16" spans="1:73">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -3269,8 +3994,56 @@
       <c r="BE16" s="8">
         <v>2157</v>
       </c>
+      <c r="BF16" s="8">
+        <v>2171</v>
+      </c>
+      <c r="BG16" s="8">
+        <v>2186</v>
+      </c>
+      <c r="BH16" s="8">
+        <v>2203</v>
+      </c>
+      <c r="BI16" s="8">
+        <v>2202</v>
+      </c>
+      <c r="BJ16" s="8">
+        <v>2202</v>
+      </c>
+      <c r="BK16" s="8">
+        <v>2201</v>
+      </c>
+      <c r="BL16" s="8">
+        <v>2127</v>
+      </c>
+      <c r="BM16" s="8">
+        <v>2127</v>
+      </c>
+      <c r="BN16" s="8">
+        <v>2080</v>
+      </c>
+      <c r="BO16" s="8">
+        <v>2069</v>
+      </c>
+      <c r="BP16" s="8">
+        <v>2062</v>
+      </c>
+      <c r="BQ16" s="8">
+        <v>1911</v>
+      </c>
+      <c r="BR16" s="8">
+        <v>1889</v>
+      </c>
+      <c r="BS16" s="8">
+        <v>1760</v>
+      </c>
+      <c r="BT16" s="8">
+        <v>1659</v>
+      </c>
+      <c r="BU16" s="8">
+        <v>1555</v>
+      </c>
     </row>
-    <row r="17" spans="1:57">
+    <row r="17" spans="1:73">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -3442,8 +4215,56 @@
       <c r="BE17" s="8">
         <v>5584</v>
       </c>
+      <c r="BF17" s="8">
+        <v>5373</v>
+      </c>
+      <c r="BG17" s="8">
+        <v>5365</v>
+      </c>
+      <c r="BH17" s="8">
+        <v>5328</v>
+      </c>
+      <c r="BI17" s="8">
+        <v>5279</v>
+      </c>
+      <c r="BJ17" s="8">
+        <v>5190</v>
+      </c>
+      <c r="BK17" s="8">
+        <v>5088</v>
+      </c>
+      <c r="BL17" s="8">
+        <v>4716</v>
+      </c>
+      <c r="BM17" s="8">
+        <v>4592</v>
+      </c>
+      <c r="BN17" s="8">
+        <v>4448</v>
+      </c>
+      <c r="BO17" s="8">
+        <v>4147</v>
+      </c>
+      <c r="BP17" s="8">
+        <v>4073</v>
+      </c>
+      <c r="BQ17" s="8">
+        <v>3841</v>
+      </c>
+      <c r="BR17" s="8">
+        <v>3563</v>
+      </c>
+      <c r="BS17" s="8">
+        <v>3168</v>
+      </c>
+      <c r="BT17" s="8">
+        <v>2943</v>
+      </c>
+      <c r="BU17" s="8">
+        <v>2802</v>
+      </c>
     </row>
-    <row r="18" spans="1:57">
+    <row r="18" spans="1:73">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -3627,8 +4448,72 @@
         <f>1370+802</f>
         <v>2172</v>
       </c>
+      <c r="BF18">
+        <f>1293+757</f>
+        <v>2050</v>
+      </c>
+      <c r="BG18">
+        <f>1282+703</f>
+        <v>1985</v>
+      </c>
+      <c r="BH18">
+        <f>1247+665</f>
+        <v>1912</v>
+      </c>
+      <c r="BI18">
+        <f>1165+636</f>
+        <v>1801</v>
+      </c>
+      <c r="BJ18">
+        <f>1041+612</f>
+        <v>1653</v>
+      </c>
+      <c r="BK18">
+        <f>982+579</f>
+        <v>1561</v>
+      </c>
+      <c r="BL18">
+        <f>910+551</f>
+        <v>1461</v>
+      </c>
+      <c r="BM18">
+        <f>872+502</f>
+        <v>1374</v>
+      </c>
+      <c r="BN18">
+        <f>830+473</f>
+        <v>1303</v>
+      </c>
+      <c r="BO18">
+        <f>786+459</f>
+        <v>1245</v>
+      </c>
+      <c r="BP18">
+        <f>735+447</f>
+        <v>1182</v>
+      </c>
+      <c r="BQ18">
+        <f>667+437</f>
+        <v>1104</v>
+      </c>
+      <c r="BR18">
+        <f>573+413</f>
+        <v>986</v>
+      </c>
+      <c r="BS18">
+        <f>406+359</f>
+        <v>765</v>
+      </c>
+      <c r="BT18">
+        <f>345+343</f>
+        <v>688</v>
+      </c>
+      <c r="BU18">
+        <f>301+314</f>
+        <v>615</v>
+      </c>
     </row>
-    <row r="19" spans="1:57">
+    <row r="19" spans="1:73">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -3800,8 +4685,56 @@
       <c r="BE19">
         <v>233</v>
       </c>
+      <c r="BF19">
+        <v>204</v>
+      </c>
+      <c r="BG19">
+        <v>196</v>
+      </c>
+      <c r="BH19">
+        <v>183</v>
+      </c>
+      <c r="BI19">
+        <v>181</v>
+      </c>
+      <c r="BJ19">
+        <v>176</v>
+      </c>
+      <c r="BK19">
+        <v>171</v>
+      </c>
+      <c r="BL19">
+        <v>141</v>
+      </c>
+      <c r="BM19">
+        <v>119</v>
+      </c>
+      <c r="BN19">
+        <v>111</v>
+      </c>
+      <c r="BO19">
+        <v>113</v>
+      </c>
+      <c r="BP19">
+        <v>108</v>
+      </c>
+      <c r="BQ19">
+        <v>109</v>
+      </c>
+      <c r="BR19">
+        <v>106</v>
+      </c>
+      <c r="BS19">
+        <v>90</v>
+      </c>
+      <c r="BT19">
+        <v>81</v>
+      </c>
+      <c r="BU19">
+        <v>78</v>
+      </c>
     </row>
-    <row r="20" spans="1:57">
+    <row r="20" spans="1:73">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -3973,8 +4906,56 @@
       <c r="BE20">
         <v>89</v>
       </c>
+      <c r="BF20">
+        <v>92</v>
+      </c>
+      <c r="BG20">
+        <v>98</v>
+      </c>
+      <c r="BH20">
+        <v>109</v>
+      </c>
+      <c r="BI20">
+        <v>110</v>
+      </c>
+      <c r="BJ20">
+        <v>110</v>
+      </c>
+      <c r="BK20">
+        <v>127</v>
+      </c>
+      <c r="BL20">
+        <v>130</v>
+      </c>
+      <c r="BM20">
+        <v>123</v>
+      </c>
+      <c r="BN20">
+        <v>118</v>
+      </c>
+      <c r="BO20">
+        <v>113</v>
+      </c>
+      <c r="BP20">
+        <v>107</v>
+      </c>
+      <c r="BQ20">
+        <v>104</v>
+      </c>
+      <c r="BR20">
+        <v>93</v>
+      </c>
+      <c r="BS20">
+        <v>77</v>
+      </c>
+      <c r="BT20">
+        <v>75</v>
+      </c>
+      <c r="BU20">
+        <v>68</v>
+      </c>
     </row>
-    <row r="21" spans="1:57">
+    <row r="21" spans="1:73">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -4146,8 +5127,56 @@
       <c r="BE21" s="8">
         <v>8147</v>
       </c>
+      <c r="BF21" s="8">
+        <v>7779</v>
+      </c>
+      <c r="BG21" s="8">
+        <v>7431</v>
+      </c>
+      <c r="BH21" s="8">
+        <v>7299</v>
+      </c>
+      <c r="BI21" s="8">
+        <v>7234</v>
+      </c>
+      <c r="BJ21" s="8">
+        <v>7116</v>
+      </c>
+      <c r="BK21" s="8">
+        <v>6789</v>
+      </c>
+      <c r="BL21" s="8">
+        <v>6534</v>
+      </c>
+      <c r="BM21" s="8">
+        <v>6187</v>
+      </c>
+      <c r="BN21" s="8">
+        <v>5877</v>
+      </c>
+      <c r="BO21" s="8">
+        <v>5591</v>
+      </c>
+      <c r="BP21" s="8">
+        <v>5460</v>
+      </c>
+      <c r="BQ21" s="8">
+        <v>5190</v>
+      </c>
+      <c r="BR21" s="8">
+        <v>5020</v>
+      </c>
+      <c r="BS21" s="8">
+        <v>4439</v>
+      </c>
+      <c r="BT21" s="8">
+        <v>4162</v>
+      </c>
+      <c r="BU21" s="8">
+        <v>4041</v>
+      </c>
     </row>
-    <row r="22" spans="1:57">
+    <row r="22" spans="1:73">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -4176,107 +5205,107 @@
         <v>10590</v>
       </c>
       <c r="H22" s="3">
-        <f>SUM(H2:H21)</f>
+        <f t="shared" ref="H22:W22" si="1">SUM(H2:H21)</f>
         <v>12839</v>
       </c>
       <c r="I22" s="3">
-        <f>SUM(I2:I21)</f>
+        <f t="shared" si="1"/>
         <v>14955</v>
       </c>
       <c r="J22" s="3">
-        <f>SUM(J2:J21)</f>
+        <f t="shared" si="1"/>
         <v>17750</v>
       </c>
       <c r="K22" s="3">
-        <f>SUM(K2:K21)</f>
+        <f t="shared" si="1"/>
         <v>20603</v>
       </c>
       <c r="L22" s="3">
-        <f>SUM(L2:L21)</f>
+        <f t="shared" si="1"/>
         <v>23073</v>
       </c>
       <c r="M22" s="3">
-        <f>SUM(M2:M21)</f>
+        <f t="shared" si="1"/>
         <v>26062</v>
       </c>
       <c r="N22" s="3">
-        <f>SUM(N2:N21)</f>
+        <f t="shared" si="1"/>
         <v>28710</v>
       </c>
       <c r="O22" s="3">
-        <f>SUM(O2:O21)</f>
+        <f t="shared" si="1"/>
         <v>33190</v>
       </c>
       <c r="P22" s="3">
-        <f>SUM(P2:P21)</f>
+        <f t="shared" si="1"/>
         <v>37860</v>
       </c>
       <c r="Q22" s="3">
-        <f>SUM(Q2:Q21)</f>
+        <f t="shared" si="1"/>
         <v>42667</v>
       </c>
       <c r="R22" s="3">
-        <f>SUM(R2:R21)</f>
+        <f t="shared" si="1"/>
         <v>46638</v>
       </c>
       <c r="S22" s="3">
-        <f>SUM(S2:S21)</f>
+        <f t="shared" si="1"/>
         <v>50418</v>
       </c>
       <c r="T22" s="3">
-        <f>SUM(T2:T21)</f>
+        <f t="shared" si="1"/>
         <v>54030</v>
       </c>
       <c r="U22" s="3">
-        <f>SUM(U2:U21)</f>
+        <f t="shared" si="1"/>
         <v>57521</v>
       </c>
       <c r="V22" s="3">
-        <f>SUM(V2:V21)</f>
+        <f t="shared" si="1"/>
         <v>62013</v>
       </c>
       <c r="W22" s="3">
-        <f>SUM(W2:W21)</f>
+        <f t="shared" si="1"/>
         <v>66414</v>
       </c>
       <c r="X22" s="3">
-        <f t="shared" ref="X22:AG22" si="1">SUM(X2:X21)</f>
+        <f t="shared" ref="X22:AG22" si="2">SUM(X2:X21)</f>
         <v>70065</v>
       </c>
       <c r="Y22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73880</v>
       </c>
       <c r="Z22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75528</v>
       </c>
       <c r="AA22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77635</v>
       </c>
       <c r="AB22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80572</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83049</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85388</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88274</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91246</v>
       </c>
       <c r="AG22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93187</v>
       </c>
       <c r="AH22" s="3">
@@ -4288,7 +5317,7 @@
         <v>95262</v>
       </c>
       <c r="AJ22" s="3">
-        <f t="shared" ref="AJ22" si="2">SUM(AJ2:AJ21)</f>
+        <f t="shared" ref="AJ22" si="3">SUM(AJ2:AJ21)</f>
         <v>96877</v>
       </c>
       <c r="AK22" s="3">
@@ -4296,11 +5325,11 @@
         <v>98273</v>
       </c>
       <c r="AL22" s="3">
-        <f t="shared" ref="AL22:AM22" si="3">SUM(AL2:AL21)</f>
+        <f t="shared" ref="AL22:AM22" si="4">SUM(AL2:AL21)</f>
         <v>100539</v>
       </c>
       <c r="AM22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>102263</v>
       </c>
       <c r="AN22" s="3">
@@ -4308,72 +5337,136 @@
         <v>103616</v>
       </c>
       <c r="AO22" s="3">
-        <f t="shared" ref="AO22:BE22" si="4">SUM(AO2:AO21)</f>
+        <f t="shared" ref="AO22:BU22" si="5">SUM(AO2:AO21)</f>
         <v>104291</v>
       </c>
       <c r="AP22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>105418</v>
       </c>
       <c r="AQ22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106346</v>
       </c>
       <c r="AR22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106962</v>
       </c>
       <c r="AS22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107757</v>
       </c>
       <c r="AT22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108257</v>
       </c>
       <c r="AU22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108237</v>
       </c>
       <c r="AV22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107709</v>
       </c>
       <c r="AW22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107699</v>
       </c>
       <c r="AX22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106848</v>
       </c>
       <c r="AY22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106527</v>
       </c>
       <c r="AZ22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>105847</v>
       </c>
       <c r="BA22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106103</v>
       </c>
       <c r="BB22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>105813</v>
       </c>
       <c r="BC22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>105205</v>
       </c>
       <c r="BD22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>104657</v>
       </c>
       <c r="BE22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>101551</v>
+      </c>
+      <c r="BF22" s="3">
+        <f t="shared" si="5"/>
+        <v>100943</v>
+      </c>
+      <c r="BG22" s="3">
+        <f t="shared" si="5"/>
+        <v>100704</v>
+      </c>
+      <c r="BH22" s="3">
+        <f t="shared" si="5"/>
+        <v>100179</v>
+      </c>
+      <c r="BI22" s="3">
+        <f t="shared" si="5"/>
+        <v>99980</v>
+      </c>
+      <c r="BJ22" s="3">
+        <f t="shared" si="5"/>
+        <v>98467</v>
+      </c>
+      <c r="BK22" s="3">
+        <f t="shared" si="5"/>
+        <v>91528</v>
+      </c>
+      <c r="BL22" s="3">
+        <f t="shared" si="5"/>
+        <v>89624</v>
+      </c>
+      <c r="BM22" s="3">
+        <f t="shared" si="5"/>
+        <v>87961</v>
+      </c>
+      <c r="BN22" s="3">
+        <f t="shared" si="5"/>
+        <v>84842</v>
+      </c>
+      <c r="BO22" s="3">
+        <f t="shared" si="5"/>
+        <v>83324</v>
+      </c>
+      <c r="BP22" s="3">
+        <f t="shared" si="5"/>
+        <v>82488</v>
+      </c>
+      <c r="BQ22" s="3">
+        <f t="shared" si="5"/>
+        <v>81266</v>
+      </c>
+      <c r="BR22" s="3">
+        <f t="shared" si="5"/>
+        <v>78457</v>
+      </c>
+      <c r="BS22" s="3">
+        <f t="shared" si="5"/>
+        <v>72070</v>
+      </c>
+      <c r="BT22" s="3">
+        <f t="shared" si="5"/>
+        <v>70187</v>
+      </c>
+      <c r="BU22" s="3">
+        <f t="shared" si="5"/>
+        <v>68351</v>
       </c>
     </row>
   </sheetData>
@@ -4383,20 +5476,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370018BD-AF2C-484B-9235-3FE7A6C4791B}">
-  <dimension ref="A1:BE4"/>
+  <dimension ref="A1:BU4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BE2" sqref="BE2"/>
+      <selection activeCell="BU2" sqref="BU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="56" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="71" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="72" max="73" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:73">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -4624,8 +5717,72 @@
         <f>activeCases!BE1</f>
         <v>43951</v>
       </c>
+      <c r="BF1" s="6">
+        <f>activeCases!BF1</f>
+        <v>43952</v>
+      </c>
+      <c r="BG1" s="6">
+        <f>activeCases!BG1</f>
+        <v>43953</v>
+      </c>
+      <c r="BH1" s="6">
+        <f>activeCases!BH1</f>
+        <v>43954</v>
+      </c>
+      <c r="BI1" s="6">
+        <f>activeCases!BI1</f>
+        <v>43955</v>
+      </c>
+      <c r="BJ1" s="6">
+        <f>activeCases!BJ1</f>
+        <v>43956</v>
+      </c>
+      <c r="BK1" s="6">
+        <f>activeCases!BK1</f>
+        <v>43957</v>
+      </c>
+      <c r="BL1" s="6">
+        <f>activeCases!BL1</f>
+        <v>43958</v>
+      </c>
+      <c r="BM1" s="6">
+        <f>activeCases!BM1</f>
+        <v>43959</v>
+      </c>
+      <c r="BN1" s="6">
+        <f>activeCases!BN1</f>
+        <v>43960</v>
+      </c>
+      <c r="BO1" s="6">
+        <f>activeCases!BO1</f>
+        <v>43961</v>
+      </c>
+      <c r="BP1" s="6">
+        <f>activeCases!BP1</f>
+        <v>43962</v>
+      </c>
+      <c r="BQ1" s="6">
+        <f>activeCases!BQ1</f>
+        <v>43963</v>
+      </c>
+      <c r="BR1" s="6">
+        <f>activeCases!BR1</f>
+        <v>43964</v>
+      </c>
+      <c r="BS1" s="6">
+        <f>activeCases!BS1</f>
+        <v>43965</v>
+      </c>
+      <c r="BT1" s="6">
+        <f>activeCases!BT1</f>
+        <v>43966</v>
+      </c>
+      <c r="BU1" s="6">
+        <f>activeCases!BU1</f>
+        <v>43967</v>
+      </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:73">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4797,8 +5954,56 @@
       <c r="BE2" s="8">
         <v>75945</v>
       </c>
+      <c r="BF2" s="8">
+        <v>78249</v>
+      </c>
+      <c r="BG2" s="8">
+        <v>79914</v>
+      </c>
+      <c r="BH2" s="8">
+        <v>81654</v>
+      </c>
+      <c r="BI2" s="8">
+        <v>82879</v>
+      </c>
+      <c r="BJ2" s="8">
+        <v>85231</v>
+      </c>
+      <c r="BK2" s="8">
+        <v>93245</v>
+      </c>
+      <c r="BL2" s="8">
+        <v>96276</v>
+      </c>
+      <c r="BM2" s="8">
+        <v>99023</v>
+      </c>
+      <c r="BN2" s="8">
+        <v>103031</v>
+      </c>
+      <c r="BO2" s="8">
+        <v>105186</v>
+      </c>
+      <c r="BP2" s="8">
+        <v>106587</v>
+      </c>
+      <c r="BQ2" s="8">
+        <v>109039</v>
+      </c>
+      <c r="BR2" s="8">
+        <v>112541</v>
+      </c>
+      <c r="BS2" s="8">
+        <v>120205</v>
+      </c>
+      <c r="BT2" s="8">
+        <v>122810</v>
+      </c>
+      <c r="BU2" s="8">
+        <v>125176</v>
+      </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:73">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4970,8 +6175,56 @@
       <c r="BE3" s="8">
         <v>27967</v>
       </c>
+      <c r="BF3" s="8">
+        <v>28236</v>
+      </c>
+      <c r="BG3" s="8">
+        <v>28710</v>
+      </c>
+      <c r="BH3" s="8">
+        <v>28884</v>
+      </c>
+      <c r="BI3" s="8">
+        <v>29079</v>
+      </c>
+      <c r="BJ3" s="8">
+        <v>29315</v>
+      </c>
+      <c r="BK3" s="8">
+        <v>29684</v>
+      </c>
+      <c r="BL3" s="8">
+        <v>29958</v>
+      </c>
+      <c r="BM3" s="8">
+        <v>30201</v>
+      </c>
+      <c r="BN3" s="8">
+        <v>30395</v>
+      </c>
+      <c r="BO3" s="8">
+        <v>30560</v>
+      </c>
+      <c r="BP3" s="8">
+        <v>30739</v>
+      </c>
+      <c r="BQ3" s="8">
+        <v>30911</v>
+      </c>
+      <c r="BR3" s="8">
+        <v>31106</v>
+      </c>
+      <c r="BS3" s="8">
+        <v>31610</v>
+      </c>
+      <c r="BT3" s="8">
+        <v>31763</v>
+      </c>
+      <c r="BU3" s="8">
+        <v>31908</v>
+      </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:73">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5198,6 +6451,70 @@
       <c r="BE4" s="2">
         <f>SUM(activeCases!BE22,BE2:BE3)</f>
         <v>205463</v>
+      </c>
+      <c r="BF4" s="2">
+        <f>SUM(activeCases!BF22,BF2:BF3)</f>
+        <v>207428</v>
+      </c>
+      <c r="BG4" s="2">
+        <f>SUM(activeCases!BG22,BG2:BG3)</f>
+        <v>209328</v>
+      </c>
+      <c r="BH4" s="2">
+        <f>SUM(activeCases!BH22,BH2:BH3)</f>
+        <v>210717</v>
+      </c>
+      <c r="BI4" s="2">
+        <f>SUM(activeCases!BI22,BI2:BI3)</f>
+        <v>211938</v>
+      </c>
+      <c r="BJ4" s="2">
+        <f>SUM(activeCases!BJ22,BJ2:BJ3)</f>
+        <v>213013</v>
+      </c>
+      <c r="BK4" s="2">
+        <f>SUM(activeCases!BK22,BK2:BK3)</f>
+        <v>214457</v>
+      </c>
+      <c r="BL4" s="2">
+        <f>SUM(activeCases!BL22,BL2:BL3)</f>
+        <v>215858</v>
+      </c>
+      <c r="BM4" s="2">
+        <f>SUM(activeCases!BM22,BM2:BM3)</f>
+        <v>217185</v>
+      </c>
+      <c r="BN4" s="2">
+        <f>SUM(activeCases!BN22,BN2:BN3)</f>
+        <v>218268</v>
+      </c>
+      <c r="BO4" s="2">
+        <f>SUM(activeCases!BO22,BO2:BO3)</f>
+        <v>219070</v>
+      </c>
+      <c r="BP4" s="2">
+        <f>SUM(activeCases!BP22,BP2:BP3)</f>
+        <v>219814</v>
+      </c>
+      <c r="BQ4" s="2">
+        <f>SUM(activeCases!BQ22,BQ2:BQ3)</f>
+        <v>221216</v>
+      </c>
+      <c r="BR4" s="2">
+        <f>SUM(activeCases!BR22,BR2:BR3)</f>
+        <v>222104</v>
+      </c>
+      <c r="BS4" s="2">
+        <f>SUM(activeCases!BS22,BS2:BS3)</f>
+        <v>223885</v>
+      </c>
+      <c r="BT4" s="2">
+        <f>SUM(activeCases!BT22,BT2:BT3)</f>
+        <v>224760</v>
+      </c>
+      <c r="BU4" s="2">
+        <f>SUM(activeCases!BU22,BU2:BU3)</f>
+        <v>225435</v>
       </c>
     </row>
   </sheetData>
